--- a/data/2019minis.xlsx
+++ b/data/2019minis.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tang-\Documents\Python\skynet2\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AA05DE-1BCB-403E-9A18-426DF81E5CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="All Schools - Raw Data" sheetId="1" r:id="rId4"/>
+    <sheet name="All Schools - Raw Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -9856,19 +9865,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -9878,57 +9889,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -10118,26 +10138,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="24.43"/>
-    <col customWidth="1" min="5" max="5" width="9.43"/>
-    <col customWidth="1" min="6" max="6" width="14.0"/>
-    <col customWidth="1" min="7" max="16" width="8.43"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="16" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -10179,7 +10205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10229,7 +10255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -10259,7 +10285,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -10293,7 +10319,7 @@
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -10325,7 +10351,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -10355,7 +10381,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -10383,7 +10409,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -10417,7 +10443,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -10449,7 +10475,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -10481,7 +10507,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -10511,7 +10537,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -10541,7 +10567,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -10569,7 +10595,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -10599,7 +10625,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -10629,7 +10655,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -10659,7 +10685,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -10693,7 +10719,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -10723,7 +10749,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -10755,7 +10781,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -10785,7 +10811,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -10815,7 +10841,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -10845,7 +10871,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -10877,7 +10903,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -10907,7 +10933,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -10943,7 +10969,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -10977,7 +11003,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -11009,7 +11035,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -11039,7 +11065,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -11069,7 +11095,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -11101,7 +11127,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -11131,7 +11157,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -11159,7 +11185,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -11195,7 +11221,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -11233,7 +11259,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -11261,7 +11287,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -11289,7 +11315,7 @@
       </c>
       <c r="P36" s="6"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -11319,7 +11345,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -11349,7 +11375,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -11381,7 +11407,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -11411,7 +11437,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -11439,7 +11465,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -11467,7 +11493,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -11497,7 +11523,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -11527,7 +11553,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -11557,7 +11583,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -11585,7 +11611,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -11615,7 +11641,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -11647,7 +11673,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -11679,7 +11705,7 @@
       </c>
       <c r="P49" s="6"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -11707,7 +11733,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -11745,7 +11771,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -11773,7 +11799,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -11801,7 +11827,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -11831,7 +11857,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -11861,7 +11887,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -11889,7 +11915,7 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -11917,7 +11943,7 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -11947,7 +11973,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -11975,7 +12001,7 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -12003,7 +12029,7 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -12035,7 +12061,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -12063,7 +12089,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -12095,7 +12121,7 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -12125,7 +12151,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -12159,7 +12185,7 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -12195,7 +12221,7 @@
       </c>
       <c r="P66" s="6"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
@@ -12227,7 +12253,7 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -12259,7 +12285,7 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -12295,7 +12321,7 @@
       </c>
       <c r="P69" s="6"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
@@ -12325,7 +12351,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -12353,7 +12379,7 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
@@ -12383,7 +12409,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -12413,7 +12439,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -12441,7 +12467,7 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
@@ -12487,7 +12513,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
@@ -12517,7 +12543,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -12549,7 +12575,7 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
@@ -12581,7 +12607,7 @@
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -12617,7 +12643,7 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -12651,7 +12677,7 @@
       </c>
       <c r="P80" s="6"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>13</v>
       </c>
@@ -12679,7 +12705,7 @@
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
@@ -12711,7 +12737,7 @@
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -12739,7 +12765,7 @@
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -12769,7 +12795,7 @@
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
@@ -12801,7 +12827,7 @@
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -12831,7 +12857,7 @@
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -12861,7 +12887,7 @@
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -12893,7 +12919,7 @@
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -12925,7 +12951,7 @@
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -12959,7 +12985,7 @@
       </c>
       <c r="P90" s="6"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
@@ -12987,7 +13013,7 @@
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -13017,7 +13043,7 @@
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -13045,7 +13071,7 @@
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -13081,7 +13107,7 @@
       </c>
       <c r="P94" s="6"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -13125,7 +13151,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
@@ -13157,7 +13183,7 @@
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -13189,7 +13215,7 @@
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>13</v>
       </c>
@@ -13231,7 +13257,7 @@
       </c>
       <c r="P98" s="6"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>13</v>
       </c>
@@ -13263,7 +13289,7 @@
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
@@ -13301,7 +13327,7 @@
       </c>
       <c r="P100" s="6"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
@@ -13333,7 +13359,7 @@
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -13365,7 +13391,7 @@
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
@@ -13405,7 +13431,7 @@
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -13447,7 +13473,7 @@
       </c>
       <c r="P104" s="6"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
@@ -13489,7 +13515,7 @@
       </c>
       <c r="P105" s="6"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -13537,7 +13563,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -13577,7 +13603,7 @@
       </c>
       <c r="P107" s="6"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -13617,7 +13643,7 @@
       </c>
       <c r="P108" s="6"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -13657,7 +13683,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
@@ -13691,7 +13717,7 @@
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>13</v>
       </c>
@@ -13731,7 +13757,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -13773,7 +13799,7 @@
       </c>
       <c r="P112" s="6"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -13813,7 +13839,7 @@
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -13855,7 +13881,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
@@ -13887,7 +13913,7 @@
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
@@ -13919,7 +13945,7 @@
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -13957,7 +13983,7 @@
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -13991,7 +14017,7 @@
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -14027,7 +14053,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
@@ -14061,7 +14087,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -14093,7 +14119,7 @@
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
@@ -14131,7 +14157,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -14165,7 +14191,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -14197,7 +14223,7 @@
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
@@ -14227,7 +14253,7 @@
       <c r="O125" s="6"/>
       <c r="P125" s="6"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -14257,7 +14283,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
@@ -14291,7 +14317,7 @@
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -14323,7 +14349,7 @@
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
@@ -14351,7 +14377,7 @@
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
@@ -14385,7 +14411,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
@@ -14413,7 +14439,7 @@
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
@@ -14447,7 +14473,7 @@
       </c>
       <c r="P132" s="6"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>13</v>
       </c>
@@ -14483,7 +14509,7 @@
       </c>
       <c r="P133" s="6"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>13</v>
       </c>
@@ -14511,7 +14537,7 @@
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>13</v>
       </c>
@@ -14545,7 +14571,7 @@
       </c>
       <c r="P135" s="6"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>13</v>
       </c>
@@ -14573,7 +14599,7 @@
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>13</v>
       </c>
@@ -14611,7 +14637,7 @@
       </c>
       <c r="P137" s="6"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -14655,7 +14681,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -14693,7 +14719,7 @@
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>13</v>
       </c>
@@ -14721,7 +14747,7 @@
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>13</v>
       </c>
@@ -14751,7 +14777,7 @@
       <c r="O141" s="6"/>
       <c r="P141" s="6"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>13</v>
       </c>
@@ -14781,7 +14807,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
@@ -14817,7 +14843,7 @@
       </c>
       <c r="P143" s="6"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>13</v>
       </c>
@@ -14855,7 +14881,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
@@ -14893,7 +14919,7 @@
       </c>
       <c r="P145" s="6"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
@@ -14925,7 +14951,7 @@
       </c>
       <c r="P146" s="6"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>13</v>
       </c>
@@ -14963,7 +14989,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -14995,7 +15021,7 @@
       <c r="O148" s="6"/>
       <c r="P148" s="6"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
@@ -15027,7 +15053,7 @@
       <c r="O149" s="6"/>
       <c r="P149" s="6"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -15057,7 +15083,7 @@
       <c r="O150" s="6"/>
       <c r="P150" s="6"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -15087,7 +15113,7 @@
       <c r="O151" s="6"/>
       <c r="P151" s="6"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -15123,7 +15149,7 @@
       <c r="O152" s="6"/>
       <c r="P152" s="6"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -15153,7 +15179,7 @@
       <c r="O153" s="6"/>
       <c r="P153" s="6"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -15183,7 +15209,7 @@
       <c r="O154" s="6"/>
       <c r="P154" s="6"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
@@ -15215,7 +15241,7 @@
       <c r="O155" s="6"/>
       <c r="P155" s="6"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
@@ -15243,7 +15269,7 @@
       <c r="O156" s="6"/>
       <c r="P156" s="6"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
@@ -15273,7 +15299,7 @@
       <c r="O157" s="6"/>
       <c r="P157" s="6"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
@@ -15303,7 +15329,7 @@
       <c r="O158" s="6"/>
       <c r="P158" s="6"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>13</v>
       </c>
@@ -15335,7 +15361,7 @@
       <c r="O159" s="6"/>
       <c r="P159" s="6"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -15385,7 +15411,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>13</v>
       </c>
@@ -15421,7 +15447,7 @@
       </c>
       <c r="P161" s="6"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
@@ -15453,7 +15479,7 @@
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
@@ -15481,7 +15507,7 @@
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -15511,7 +15537,7 @@
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -15561,7 +15587,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
@@ -15591,7 +15617,7 @@
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -15641,7 +15667,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
@@ -15671,7 +15697,7 @@
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -15703,7 +15729,7 @@
       <c r="O169" s="6"/>
       <c r="P169" s="6"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>13</v>
       </c>
@@ -15733,7 +15759,7 @@
       <c r="O170" s="6"/>
       <c r="P170" s="6"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
@@ -15763,7 +15789,7 @@
       <c r="O171" s="6"/>
       <c r="P171" s="6"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
@@ -15813,7 +15839,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>13</v>
       </c>
@@ -15853,7 +15879,7 @@
       </c>
       <c r="P173" s="6"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>13</v>
       </c>
@@ -15883,7 +15909,7 @@
       <c r="O174" s="6"/>
       <c r="P174" s="6"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
@@ -15917,7 +15943,7 @@
       <c r="O175" s="6"/>
       <c r="P175" s="6"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>13</v>
       </c>
@@ -15947,7 +15973,7 @@
       <c r="O176" s="6"/>
       <c r="P176" s="6"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>13</v>
       </c>
@@ -15977,7 +16003,7 @@
       <c r="O177" s="6"/>
       <c r="P177" s="6"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>13</v>
       </c>
@@ -16005,7 +16031,7 @@
       <c r="O178" s="6"/>
       <c r="P178" s="6"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>13</v>
       </c>
@@ -16037,7 +16063,7 @@
       <c r="O179" s="6"/>
       <c r="P179" s="6"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>13</v>
       </c>
@@ -16069,7 +16095,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>13</v>
       </c>
@@ -16111,7 +16137,7 @@
       </c>
       <c r="P181" s="6"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>13</v>
       </c>
@@ -16145,7 +16171,7 @@
       </c>
       <c r="P182" s="6"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>13</v>
       </c>
@@ -16175,7 +16201,7 @@
       <c r="O183" s="6"/>
       <c r="P183" s="6"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>13</v>
       </c>
@@ -16205,7 +16231,7 @@
       <c r="O184" s="6"/>
       <c r="P184" s="6"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>13</v>
       </c>
@@ -16233,7 +16259,7 @@
       <c r="O185" s="6"/>
       <c r="P185" s="6"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>13</v>
       </c>
@@ -16263,7 +16289,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>13</v>
       </c>
@@ -16295,7 +16321,7 @@
       <c r="O187" s="6"/>
       <c r="P187" s="6"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>13</v>
       </c>
@@ -16333,7 +16359,7 @@
       <c r="O188" s="6"/>
       <c r="P188" s="6"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>13</v>
       </c>
@@ -16363,7 +16389,7 @@
       <c r="O189" s="6"/>
       <c r="P189" s="6"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>13</v>
       </c>
@@ -16395,7 +16421,7 @@
       <c r="O190" s="6"/>
       <c r="P190" s="6"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>13</v>
       </c>
@@ -16435,7 +16461,7 @@
       </c>
       <c r="P191" s="6"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>13</v>
       </c>
@@ -16469,7 +16495,7 @@
       </c>
       <c r="P192" s="6"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
@@ -16503,7 +16529,7 @@
       </c>
       <c r="P193" s="6"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>13</v>
       </c>
@@ -16533,7 +16559,7 @@
       <c r="O194" s="6"/>
       <c r="P194" s="6"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>13</v>
       </c>
@@ -16565,7 +16591,7 @@
       <c r="O195" s="6"/>
       <c r="P195" s="6"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>13</v>
       </c>
@@ -16595,7 +16621,7 @@
       </c>
       <c r="P196" s="6"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -16625,7 +16651,7 @@
       <c r="O197" s="6"/>
       <c r="P197" s="6"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>13</v>
       </c>
@@ -16661,7 +16687,7 @@
       <c r="O198" s="6"/>
       <c r="P198" s="6"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>13</v>
       </c>
@@ -16691,7 +16717,7 @@
       <c r="O199" s="6"/>
       <c r="P199" s="6"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>13</v>
       </c>
@@ -16719,7 +16745,7 @@
       <c r="O200" s="6"/>
       <c r="P200" s="6"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>13</v>
       </c>
@@ -16747,7 +16773,7 @@
       <c r="O201" s="6"/>
       <c r="P201" s="6"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>13</v>
       </c>
@@ -16777,7 +16803,7 @@
       <c r="O202" s="6"/>
       <c r="P202" s="6"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>13</v>
       </c>
@@ -16811,7 +16837,7 @@
       <c r="O203" s="6"/>
       <c r="P203" s="6"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
@@ -16847,7 +16873,7 @@
       </c>
       <c r="P204" s="6"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>13</v>
       </c>
@@ -16877,7 +16903,7 @@
       <c r="O205" s="6"/>
       <c r="P205" s="6"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>13</v>
       </c>
@@ -16913,7 +16939,7 @@
       </c>
       <c r="P206" s="6"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>13</v>
       </c>
@@ -16945,7 +16971,7 @@
       <c r="O207" s="6"/>
       <c r="P207" s="6"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
@@ -16979,7 +17005,7 @@
       <c r="O208" s="6"/>
       <c r="P208" s="6"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>13</v>
       </c>
@@ -17011,7 +17037,7 @@
       </c>
       <c r="P209" s="6"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>13</v>
       </c>
@@ -17039,7 +17065,7 @@
       <c r="O210" s="6"/>
       <c r="P210" s="6"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>13</v>
       </c>
@@ -17069,7 +17095,7 @@
       <c r="O211" s="6"/>
       <c r="P211" s="6"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>13</v>
       </c>
@@ -17103,7 +17129,7 @@
       <c r="O212" s="6"/>
       <c r="P212" s="6"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>13</v>
       </c>
@@ -17137,7 +17163,7 @@
       <c r="O213" s="6"/>
       <c r="P213" s="6"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
@@ -17171,7 +17197,7 @@
       </c>
       <c r="P214" s="6"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>13</v>
       </c>
@@ -17199,7 +17225,7 @@
       <c r="O215" s="6"/>
       <c r="P215" s="6"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>13</v>
       </c>
@@ -17227,7 +17253,7 @@
       <c r="O216" s="6"/>
       <c r="P216" s="6"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>13</v>
       </c>
@@ -17255,7 +17281,7 @@
       <c r="O217" s="6"/>
       <c r="P217" s="6"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>13</v>
       </c>
@@ -17283,7 +17309,7 @@
       <c r="O218" s="6"/>
       <c r="P218" s="6"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>13</v>
       </c>
@@ -17311,7 +17337,7 @@
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
@@ -17339,7 +17365,7 @@
       <c r="O220" s="6"/>
       <c r="P220" s="6"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>13</v>
       </c>
@@ -17367,7 +17393,7 @@
       <c r="O221" s="6"/>
       <c r="P221" s="6"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>13</v>
       </c>
@@ -17397,7 +17423,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>13</v>
       </c>
@@ -17427,7 +17453,7 @@
       <c r="O223" s="6"/>
       <c r="P223" s="6"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>13</v>
       </c>
@@ -17459,7 +17485,7 @@
       <c r="O224" s="6"/>
       <c r="P224" s="6"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>13</v>
       </c>
@@ -17501,7 +17527,7 @@
       </c>
       <c r="P225" s="6"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>13</v>
       </c>
@@ -17531,7 +17557,7 @@
       <c r="O226" s="6"/>
       <c r="P226" s="6"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>13</v>
       </c>
@@ -17577,7 +17603,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>13</v>
       </c>
@@ -17611,7 +17637,7 @@
       </c>
       <c r="P228" s="6"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>13</v>
       </c>
@@ -17641,7 +17667,7 @@
       <c r="O229" s="6"/>
       <c r="P229" s="6"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>13</v>
       </c>
@@ -17671,7 +17697,7 @@
       <c r="O230" s="6"/>
       <c r="P230" s="6"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>13</v>
       </c>
@@ -17701,7 +17727,7 @@
       <c r="O231" s="6"/>
       <c r="P231" s="6"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>13</v>
       </c>
@@ -17731,7 +17757,7 @@
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
@@ -17761,7 +17787,7 @@
       <c r="O233" s="6"/>
       <c r="P233" s="6"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -17793,7 +17819,7 @@
       <c r="O234" s="6"/>
       <c r="P234" s="6"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>13</v>
       </c>
@@ -17825,7 +17851,7 @@
       <c r="O235" s="6"/>
       <c r="P235" s="6"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>13</v>
       </c>
@@ -17855,7 +17881,7 @@
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>13</v>
       </c>
@@ -17885,7 +17911,7 @@
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>13</v>
       </c>
@@ -17915,7 +17941,7 @@
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>13</v>
       </c>
@@ -17949,7 +17975,7 @@
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>13</v>
       </c>
@@ -17979,7 +18005,7 @@
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -18011,7 +18037,7 @@
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>13</v>
       </c>
@@ -18047,7 +18073,7 @@
       </c>
       <c r="P242" s="6"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>13</v>
       </c>
@@ -18077,7 +18103,7 @@
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>13</v>
       </c>
@@ -18109,7 +18135,7 @@
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>13</v>
       </c>
@@ -18141,7 +18167,7 @@
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>13</v>
       </c>
@@ -18171,7 +18197,7 @@
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>13</v>
       </c>
@@ -18209,7 +18235,7 @@
       </c>
       <c r="P247" s="6"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>13</v>
       </c>
@@ -18241,7 +18267,7 @@
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>13</v>
       </c>
@@ -18275,7 +18301,7 @@
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>13</v>
       </c>
@@ -18313,7 +18339,7 @@
       </c>
       <c r="P250" s="6"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>13</v>
       </c>
@@ -18349,7 +18375,7 @@
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>13</v>
       </c>
@@ -18383,7 +18409,7 @@
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>13</v>
       </c>
@@ -18425,7 +18451,7 @@
       </c>
       <c r="P253" s="6"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>13</v>
       </c>
@@ -18457,7 +18483,7 @@
       <c r="O254" s="6"/>
       <c r="P254" s="6"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>13</v>
       </c>
@@ -18485,7 +18511,7 @@
       <c r="O255" s="6"/>
       <c r="P255" s="6"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>13</v>
       </c>
@@ -18517,7 +18543,7 @@
       <c r="O256" s="6"/>
       <c r="P256" s="6"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>13</v>
       </c>
@@ -18549,7 +18575,7 @@
       <c r="O257" s="6"/>
       <c r="P257" s="6"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
@@ -18583,7 +18609,7 @@
       </c>
       <c r="P258" s="6"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>13</v>
       </c>
@@ -18621,7 +18647,7 @@
       </c>
       <c r="P259" s="6"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>13</v>
       </c>
@@ -18649,7 +18675,7 @@
       <c r="O260" s="6"/>
       <c r="P260" s="6"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>13</v>
       </c>
@@ -18687,7 +18713,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>13</v>
       </c>
@@ -18717,7 +18743,7 @@
       <c r="O262" s="6"/>
       <c r="P262" s="6"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>13</v>
       </c>
@@ -18751,7 +18777,7 @@
       <c r="O263" s="6"/>
       <c r="P263" s="6"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>13</v>
       </c>
@@ -18781,7 +18807,7 @@
       <c r="O264" s="6"/>
       <c r="P264" s="6"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>13</v>
       </c>
@@ -18819,7 +18845,7 @@
       <c r="O265" s="6"/>
       <c r="P265" s="6"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>13</v>
       </c>
@@ -18861,7 +18887,7 @@
       <c r="O266" s="6"/>
       <c r="P266" s="6"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>13</v>
       </c>
@@ -18889,7 +18915,7 @@
       <c r="O267" s="6"/>
       <c r="P267" s="6"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>13</v>
       </c>
@@ -18919,7 +18945,7 @@
       <c r="O268" s="6"/>
       <c r="P268" s="6"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>13</v>
       </c>
@@ -18951,7 +18977,7 @@
       </c>
       <c r="P269" s="6"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>13</v>
       </c>
@@ -18983,7 +19009,7 @@
       <c r="O270" s="6"/>
       <c r="P270" s="6"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>13</v>
       </c>
@@ -19013,7 +19039,7 @@
       <c r="O271" s="6"/>
       <c r="P271" s="6"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>13</v>
       </c>
@@ -19043,7 +19069,7 @@
       <c r="O272" s="6"/>
       <c r="P272" s="6"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>13</v>
       </c>
@@ -19073,7 +19099,7 @@
       <c r="O273" s="6"/>
       <c r="P273" s="6"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>13</v>
       </c>
@@ -19107,7 +19133,7 @@
       <c r="O274" s="6"/>
       <c r="P274" s="6"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>13</v>
       </c>
@@ -19141,7 +19167,7 @@
       <c r="O275" s="6"/>
       <c r="P275" s="6"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>13</v>
       </c>
@@ -19173,7 +19199,7 @@
       <c r="O276" s="6"/>
       <c r="P276" s="6"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>13</v>
       </c>
@@ -19203,7 +19229,7 @@
       <c r="O277" s="6"/>
       <c r="P277" s="6"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
@@ -19253,7 +19279,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>13</v>
       </c>
@@ -19287,7 +19313,7 @@
       <c r="O279" s="6"/>
       <c r="P279" s="6"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>13</v>
       </c>
@@ -19315,7 +19341,7 @@
       <c r="O280" s="6"/>
       <c r="P280" s="6"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>13</v>
       </c>
@@ -19345,7 +19371,7 @@
       <c r="O281" s="6"/>
       <c r="P281" s="6"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>13</v>
       </c>
@@ -19375,7 +19401,7 @@
       <c r="O282" s="6"/>
       <c r="P282" s="6"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>13</v>
       </c>
@@ -19409,7 +19435,7 @@
       </c>
       <c r="P283" s="6"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>13</v>
       </c>
@@ -19441,7 +19467,7 @@
       </c>
       <c r="P284" s="6"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>13</v>
       </c>
@@ -19475,7 +19501,7 @@
       <c r="O285" s="6"/>
       <c r="P285" s="6"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>13</v>
       </c>
@@ -19511,7 +19537,7 @@
       </c>
       <c r="P286" s="6"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>13</v>
       </c>
@@ -19547,7 +19573,7 @@
       </c>
       <c r="P287" s="6"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>13</v>
       </c>
@@ -19579,7 +19605,7 @@
       <c r="O288" s="6"/>
       <c r="P288" s="6"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>13</v>
       </c>
@@ -19615,7 +19641,7 @@
       <c r="O289" s="6"/>
       <c r="P289" s="6"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>13</v>
       </c>
@@ -19651,7 +19677,7 @@
       </c>
       <c r="P290" s="6"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>13</v>
       </c>
@@ -19685,7 +19711,7 @@
       </c>
       <c r="P291" s="6"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>13</v>
       </c>
@@ -19715,7 +19741,7 @@
       <c r="O292" s="6"/>
       <c r="P292" s="6"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>13</v>
       </c>
@@ -19747,7 +19773,7 @@
       <c r="O293" s="6"/>
       <c r="P293" s="6"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>13</v>
       </c>
@@ -19785,7 +19811,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>13</v>
       </c>
@@ -19815,7 +19841,7 @@
       <c r="O295" s="6"/>
       <c r="P295" s="6"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>13</v>
       </c>
@@ -19849,7 +19875,7 @@
       </c>
       <c r="P296" s="6"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>13</v>
       </c>
@@ -19879,7 +19905,7 @@
       <c r="O297" s="6"/>
       <c r="P297" s="6"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>13</v>
       </c>
@@ -19909,7 +19935,7 @@
       <c r="O298" s="6"/>
       <c r="P298" s="6"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>13</v>
       </c>
@@ -19939,7 +19965,7 @@
       <c r="O299" s="6"/>
       <c r="P299" s="6"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>13</v>
       </c>
@@ -19967,7 +19993,7 @@
       <c r="O300" s="6"/>
       <c r="P300" s="6"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -19997,7 +20023,7 @@
       <c r="O301" s="6"/>
       <c r="P301" s="6"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>13</v>
       </c>
@@ -20025,7 +20051,7 @@
       <c r="O302" s="6"/>
       <c r="P302" s="6"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
@@ -20057,7 +20083,7 @@
       <c r="O303" s="6"/>
       <c r="P303" s="6"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>13</v>
       </c>
@@ -20107,7 +20133,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>13</v>
       </c>
@@ -20151,7 +20177,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>13</v>
       </c>
@@ -20183,7 +20209,7 @@
       <c r="O306" s="6"/>
       <c r="P306" s="6"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>13</v>
       </c>
@@ -20215,7 +20241,7 @@
       <c r="O307" s="6"/>
       <c r="P307" s="6"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>13</v>
       </c>
@@ -20251,7 +20277,7 @@
       </c>
       <c r="P308" s="6"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>13</v>
       </c>
@@ -20281,7 +20307,7 @@
       <c r="O309" s="6"/>
       <c r="P309" s="6"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>13</v>
       </c>
@@ -20311,7 +20337,7 @@
       <c r="O310" s="6"/>
       <c r="P310" s="6"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>13</v>
       </c>
@@ -20343,7 +20369,7 @@
       <c r="O311" s="6"/>
       <c r="P311" s="6"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>13</v>
       </c>
@@ -20375,7 +20401,7 @@
       <c r="O312" s="6"/>
       <c r="P312" s="6"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>13</v>
       </c>
@@ -20405,7 +20431,7 @@
       <c r="O313" s="6"/>
       <c r="P313" s="6"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>13</v>
       </c>
@@ -20439,7 +20465,7 @@
       <c r="O314" s="6"/>
       <c r="P314" s="6"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>13</v>
       </c>
@@ -20469,7 +20495,7 @@
       <c r="O315" s="6"/>
       <c r="P315" s="6"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>13</v>
       </c>
@@ -20499,7 +20525,7 @@
       <c r="O316" s="6"/>
       <c r="P316" s="6"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>13</v>
       </c>
@@ -20537,7 +20563,7 @@
       </c>
       <c r="P317" s="6"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>13</v>
       </c>
@@ -20571,7 +20597,7 @@
       <c r="O318" s="6"/>
       <c r="P318" s="6"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>13</v>
       </c>
@@ -20621,7 +20647,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>13</v>
       </c>
@@ -20653,7 +20679,7 @@
       <c r="O320" s="6"/>
       <c r="P320" s="6"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>13</v>
       </c>
@@ -20701,7 +20727,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>13</v>
       </c>
@@ -20741,7 +20767,7 @@
       </c>
       <c r="P322" s="6"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>13</v>
       </c>
@@ -20773,7 +20799,7 @@
       <c r="O323" s="6"/>
       <c r="P323" s="6"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>13</v>
       </c>
@@ -20803,7 +20829,7 @@
       <c r="O324" s="6"/>
       <c r="P324" s="6"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>13</v>
       </c>
@@ -20849,7 +20875,7 @@
       </c>
       <c r="P325" s="6"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>13</v>
       </c>
@@ -20879,7 +20905,7 @@
       <c r="O326" s="6"/>
       <c r="P326" s="6"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>13</v>
       </c>
@@ -20909,7 +20935,7 @@
       <c r="O327" s="6"/>
       <c r="P327" s="6"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>13</v>
       </c>
@@ -20939,7 +20965,7 @@
       <c r="O328" s="6"/>
       <c r="P328" s="6"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>13</v>
       </c>
@@ -20977,7 +21003,7 @@
       </c>
       <c r="P329" s="6"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>13</v>
       </c>
@@ -21015,7 +21041,7 @@
       </c>
       <c r="P330" s="6"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>13</v>
       </c>
@@ -21047,7 +21073,7 @@
       <c r="O331" s="6"/>
       <c r="P331" s="6"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>13</v>
       </c>
@@ -21081,7 +21107,7 @@
       <c r="O332" s="6"/>
       <c r="P332" s="6"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>13</v>
       </c>
@@ -21113,7 +21139,7 @@
       <c r="O333" s="6"/>
       <c r="P333" s="6"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>13</v>
       </c>
@@ -21145,7 +21171,7 @@
       <c r="O334" s="6"/>
       <c r="P334" s="6"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>13</v>
       </c>
@@ -21179,7 +21205,7 @@
       </c>
       <c r="P335" s="6"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>13</v>
       </c>
@@ -21209,7 +21235,7 @@
       <c r="O336" s="6"/>
       <c r="P336" s="6"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>13</v>
       </c>
@@ -21239,7 +21265,7 @@
       <c r="O337" s="6"/>
       <c r="P337" s="6"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>13</v>
       </c>
@@ -21269,7 +21295,7 @@
       <c r="O338" s="6"/>
       <c r="P338" s="6"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>13</v>
       </c>
@@ -21299,7 +21325,7 @@
       <c r="O339" s="6"/>
       <c r="P339" s="6"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>13</v>
       </c>
@@ -21327,7 +21353,7 @@
       <c r="O340" s="6"/>
       <c r="P340" s="6"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>13</v>
       </c>
@@ -21355,7 +21381,7 @@
       <c r="O341" s="6"/>
       <c r="P341" s="6"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>13</v>
       </c>
@@ -21385,7 +21411,7 @@
       <c r="O342" s="6"/>
       <c r="P342" s="6"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>13</v>
       </c>
@@ -21419,7 +21445,7 @@
       <c r="O343" s="6"/>
       <c r="P343" s="6"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>13</v>
       </c>
@@ -21451,7 +21477,7 @@
       <c r="O344" s="6"/>
       <c r="P344" s="6"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>13</v>
       </c>
@@ -21481,7 +21507,7 @@
       <c r="O345" s="6"/>
       <c r="P345" s="6"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>13</v>
       </c>
@@ -21513,7 +21539,7 @@
       <c r="O346" s="6"/>
       <c r="P346" s="6"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>13</v>
       </c>
@@ -21545,7 +21571,7 @@
       <c r="O347" s="6"/>
       <c r="P347" s="6"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>13</v>
       </c>
@@ -21575,7 +21601,7 @@
       <c r="O348" s="6"/>
       <c r="P348" s="6"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>13</v>
       </c>
@@ -21605,7 +21631,7 @@
       <c r="O349" s="6"/>
       <c r="P349" s="6"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>13</v>
       </c>
@@ -21635,7 +21661,7 @@
       <c r="O350" s="6"/>
       <c r="P350" s="6"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>13</v>
       </c>
@@ -21663,7 +21689,7 @@
       <c r="O351" s="6"/>
       <c r="P351" s="6"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>13</v>
       </c>
@@ -21693,7 +21719,7 @@
       <c r="O352" s="6"/>
       <c r="P352" s="6"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>13</v>
       </c>
@@ -21721,7 +21747,7 @@
       <c r="O353" s="6"/>
       <c r="P353" s="6"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>13</v>
       </c>
@@ -21751,7 +21777,7 @@
       <c r="O354" s="6"/>
       <c r="P354" s="6"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>13</v>
       </c>
@@ -21781,7 +21807,7 @@
       </c>
       <c r="P355" s="6"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>13</v>
       </c>
@@ -21809,7 +21835,7 @@
       <c r="O356" s="6"/>
       <c r="P356" s="6"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>13</v>
       </c>
@@ -21839,7 +21865,7 @@
       <c r="O357" s="6"/>
       <c r="P357" s="6"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>13</v>
       </c>
@@ -21869,7 +21895,7 @@
       <c r="O358" s="6"/>
       <c r="P358" s="6"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>13</v>
       </c>
@@ -21919,7 +21945,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>13</v>
       </c>
@@ -21949,7 +21975,7 @@
       <c r="O360" s="6"/>
       <c r="P360" s="6"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>13</v>
       </c>
@@ -21979,7 +22005,7 @@
       <c r="O361" s="6"/>
       <c r="P361" s="6"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>13</v>
       </c>
@@ -22011,7 +22037,7 @@
       <c r="O362" s="6"/>
       <c r="P362" s="6"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>13</v>
       </c>
@@ -22043,7 +22069,7 @@
       <c r="O363" s="6"/>
       <c r="P363" s="6"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>13</v>
       </c>
@@ -22073,7 +22099,7 @@
       <c r="O364" s="6"/>
       <c r="P364" s="6"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>13</v>
       </c>
@@ -22103,7 +22129,7 @@
       <c r="O365" s="6"/>
       <c r="P365" s="6"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>13</v>
       </c>
@@ -22133,7 +22159,7 @@
       <c r="O366" s="6"/>
       <c r="P366" s="6"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>13</v>
       </c>
@@ -22163,7 +22189,7 @@
       <c r="O367" s="6"/>
       <c r="P367" s="6"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>13</v>
       </c>
@@ -22193,7 +22219,7 @@
       <c r="O368" s="6"/>
       <c r="P368" s="6"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>13</v>
       </c>
@@ -22235,7 +22261,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>13</v>
       </c>
@@ -22283,7 +22309,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>13</v>
       </c>
@@ -22317,7 +22343,7 @@
       <c r="O371" s="6"/>
       <c r="P371" s="6"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>13</v>
       </c>
@@ -22357,7 +22383,7 @@
       </c>
       <c r="P372" s="6"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>13</v>
       </c>
@@ -22387,7 +22413,7 @@
       <c r="O373" s="6"/>
       <c r="P373" s="6"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>13</v>
       </c>
@@ -22425,7 +22451,7 @@
       <c r="O374" s="6"/>
       <c r="P374" s="6"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>13</v>
       </c>
@@ -22467,7 +22493,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>13</v>
       </c>
@@ -22503,7 +22529,7 @@
       </c>
       <c r="P376" s="6"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>13</v>
       </c>
@@ -22543,7 +22569,7 @@
       </c>
       <c r="P377" s="6"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>13</v>
       </c>
@@ -22575,7 +22601,7 @@
       <c r="O378" s="6"/>
       <c r="P378" s="6"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>13</v>
       </c>
@@ -22605,7 +22631,7 @@
       <c r="O379" s="6"/>
       <c r="P379" s="6"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>13</v>
       </c>
@@ -22637,7 +22663,7 @@
       <c r="O380" s="6"/>
       <c r="P380" s="6"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>13</v>
       </c>
@@ -22667,7 +22693,7 @@
       </c>
       <c r="P381" s="6"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>13</v>
       </c>
@@ -22703,7 +22729,7 @@
       </c>
       <c r="P382" s="6"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>13</v>
       </c>
@@ -22737,7 +22763,7 @@
       </c>
       <c r="P383" s="6"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>13</v>
       </c>
@@ -22765,7 +22791,7 @@
       <c r="O384" s="6"/>
       <c r="P384" s="6"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>13</v>
       </c>
@@ -22795,7 +22821,7 @@
       <c r="O385" s="6"/>
       <c r="P385" s="6"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>13</v>
       </c>
@@ -22827,7 +22853,7 @@
       </c>
       <c r="P386" s="6"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>13</v>
       </c>
@@ -22857,7 +22883,7 @@
       <c r="O387" s="6"/>
       <c r="P387" s="6"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>13</v>
       </c>
@@ -22893,7 +22919,7 @@
       </c>
       <c r="P388" s="6"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>13</v>
       </c>
@@ -22931,7 +22957,7 @@
       </c>
       <c r="P389" s="6"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>13</v>
       </c>
@@ -22977,7 +23003,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>13</v>
       </c>
@@ -23013,7 +23039,7 @@
       </c>
       <c r="P391" s="6"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>13</v>
       </c>
@@ -23045,7 +23071,7 @@
       <c r="O392" s="6"/>
       <c r="P392" s="6"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>13</v>
       </c>
@@ -23081,7 +23107,7 @@
       </c>
       <c r="P393" s="6"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>13</v>
       </c>
@@ -23111,7 +23137,7 @@
       <c r="O394" s="6"/>
       <c r="P394" s="6"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>13</v>
       </c>
@@ -23145,7 +23171,7 @@
       </c>
       <c r="P395" s="6"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>13</v>
       </c>
@@ -23195,7 +23221,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>13</v>
       </c>
@@ -23225,7 +23251,7 @@
       <c r="O397" s="6"/>
       <c r="P397" s="6"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>13</v>
       </c>
@@ -23275,7 +23301,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>13</v>
       </c>
@@ -23305,7 +23331,7 @@
       <c r="O399" s="6"/>
       <c r="P399" s="6"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>13</v>
       </c>
@@ -23335,7 +23361,7 @@
       <c r="O400" s="6"/>
       <c r="P400" s="6"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>13</v>
       </c>
@@ -23371,7 +23397,7 @@
       <c r="O401" s="6"/>
       <c r="P401" s="6"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>13</v>
       </c>
@@ -23407,7 +23433,7 @@
       <c r="O402" s="6"/>
       <c r="P402" s="6"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>13</v>
       </c>
@@ -23443,7 +23469,7 @@
       <c r="O403" s="6"/>
       <c r="P403" s="6"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>13</v>
       </c>
@@ -23489,7 +23515,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>13</v>
       </c>
@@ -23519,7 +23545,7 @@
       <c r="O405" s="6"/>
       <c r="P405" s="6"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>13</v>
       </c>
@@ -23565,7 +23591,7 @@
       </c>
       <c r="P406" s="6"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>13</v>
       </c>
@@ -23599,7 +23625,7 @@
       <c r="O407" s="6"/>
       <c r="P407" s="6"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>13</v>
       </c>
@@ -23631,7 +23657,7 @@
       </c>
       <c r="P408" s="6"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>13</v>
       </c>
@@ -23667,7 +23693,7 @@
       </c>
       <c r="P409" s="6"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>13</v>
       </c>
@@ -23697,7 +23723,7 @@
       <c r="O410" s="6"/>
       <c r="P410" s="6"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>13</v>
       </c>
@@ -23727,7 +23753,7 @@
       <c r="O411" s="6"/>
       <c r="P411" s="6"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>13</v>
       </c>
@@ -23757,7 +23783,7 @@
       <c r="O412" s="6"/>
       <c r="P412" s="6"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>1757</v>
       </c>
@@ -23791,7 +23817,7 @@
       </c>
       <c r="P413" s="6"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>1757</v>
       </c>
@@ -23833,7 +23859,7 @@
       </c>
       <c r="P414" s="6"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>1757</v>
       </c>
@@ -23877,7 +23903,7 @@
       </c>
       <c r="P415" s="6"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>1757</v>
       </c>
@@ -23925,7 +23951,7 @@
       </c>
       <c r="P416" s="6"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>1757</v>
       </c>
@@ -23959,7 +23985,7 @@
       <c r="O417" s="6"/>
       <c r="P417" s="6"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>1757</v>
       </c>
@@ -23991,7 +24017,7 @@
       <c r="O418" s="6"/>
       <c r="P418" s="6"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24019,7 +24045,7 @@
       <c r="O419" s="6"/>
       <c r="P419" s="6"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24049,7 +24075,7 @@
       <c r="O420" s="6"/>
       <c r="P420" s="6"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24081,7 +24107,7 @@
       </c>
       <c r="P421" s="6"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24109,7 +24135,7 @@
       <c r="O422" s="6"/>
       <c r="P422" s="6"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24141,7 +24167,7 @@
       <c r="O423" s="6"/>
       <c r="P423" s="6"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24171,7 +24197,7 @@
       <c r="O424" s="6"/>
       <c r="P424" s="6"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24199,7 +24225,7 @@
       <c r="O425" s="6"/>
       <c r="P425" s="6"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24229,7 +24255,7 @@
       <c r="O426" s="6"/>
       <c r="P426" s="6"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24259,7 +24285,7 @@
       <c r="O427" s="6"/>
       <c r="P427" s="6"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24289,7 +24315,7 @@
       <c r="O428" s="6"/>
       <c r="P428" s="6"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24319,7 +24345,7 @@
       <c r="O429" s="6"/>
       <c r="P429" s="6"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24349,7 +24375,7 @@
       <c r="O430" s="6"/>
       <c r="P430" s="6"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24385,7 +24411,7 @@
       </c>
       <c r="P431" s="6"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24415,7 +24441,7 @@
       <c r="O432" s="6"/>
       <c r="P432" s="6"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24447,7 +24473,7 @@
       <c r="O433" s="6"/>
       <c r="P433" s="6"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24483,7 +24509,7 @@
       </c>
       <c r="P434" s="6"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24519,7 +24545,7 @@
       <c r="O435" s="6"/>
       <c r="P435" s="6"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24551,7 +24577,7 @@
       <c r="O436" s="6"/>
       <c r="P436" s="6"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24581,7 +24607,7 @@
       <c r="O437" s="6"/>
       <c r="P437" s="6"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24611,7 +24637,7 @@
       <c r="O438" s="6"/>
       <c r="P438" s="6"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24643,7 +24669,7 @@
       <c r="O439" s="6"/>
       <c r="P439" s="6"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24681,7 +24707,7 @@
       </c>
       <c r="P440" s="6"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24713,7 +24739,7 @@
       <c r="O441" s="6"/>
       <c r="P441" s="6"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24741,7 +24767,7 @@
       <c r="O442" s="6"/>
       <c r="P442" s="6"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24773,7 +24799,7 @@
       <c r="O443" s="6"/>
       <c r="P443" s="6"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24801,7 +24827,7 @@
       <c r="O444" s="6"/>
       <c r="P444" s="6"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24833,7 +24859,7 @@
       <c r="O445" s="6"/>
       <c r="P445" s="6"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24861,7 +24887,7 @@
       <c r="O446" s="6"/>
       <c r="P446" s="6"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24889,7 +24915,7 @@
       <c r="O447" s="6"/>
       <c r="P447" s="6"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24917,7 +24943,7 @@
       <c r="O448" s="6"/>
       <c r="P448" s="6"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24945,7 +24971,7 @@
       <c r="O449" s="6"/>
       <c r="P449" s="6"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>1757</v>
       </c>
@@ -24975,7 +25001,7 @@
       <c r="O450" s="6"/>
       <c r="P450" s="6"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25007,7 +25033,7 @@
       <c r="O451" s="6"/>
       <c r="P451" s="6"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25037,7 +25063,7 @@
       <c r="O452" s="6"/>
       <c r="P452" s="6"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25067,7 +25093,7 @@
       <c r="O453" s="6"/>
       <c r="P453" s="6"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25095,7 +25121,7 @@
       <c r="O454" s="6"/>
       <c r="P454" s="6"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25125,7 +25151,7 @@
       <c r="O455" s="6"/>
       <c r="P455" s="6"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25163,7 +25189,7 @@
       <c r="O456" s="6"/>
       <c r="P456" s="6"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25193,7 +25219,7 @@
       <c r="O457" s="6"/>
       <c r="P457" s="6"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25225,7 +25251,7 @@
       <c r="O458" s="6"/>
       <c r="P458" s="6"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25255,7 +25281,7 @@
       <c r="O459" s="6"/>
       <c r="P459" s="6"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25287,7 +25313,7 @@
       <c r="O460" s="6"/>
       <c r="P460" s="6"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25331,7 +25357,7 @@
       </c>
       <c r="P461" s="6"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25361,7 +25387,7 @@
       <c r="O462" s="6"/>
       <c r="P462" s="6"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25391,7 +25417,7 @@
       <c r="O463" s="6"/>
       <c r="P463" s="6"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25421,7 +25447,7 @@
       <c r="O464" s="6"/>
       <c r="P464" s="6"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25451,7 +25477,7 @@
       <c r="O465" s="6"/>
       <c r="P465" s="6"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25493,7 +25519,7 @@
       </c>
       <c r="P466" s="6"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25521,7 +25547,7 @@
       <c r="O467" s="6"/>
       <c r="P467" s="6"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25557,7 +25583,7 @@
       </c>
       <c r="P468" s="6"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25589,7 +25615,7 @@
       <c r="O469" s="6"/>
       <c r="P469" s="6"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25621,7 +25647,7 @@
       <c r="O470" s="6"/>
       <c r="P470" s="6"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25653,7 +25679,7 @@
       <c r="O471" s="6"/>
       <c r="P471" s="6"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25689,7 +25715,7 @@
       <c r="O472" s="6"/>
       <c r="P472" s="6"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25717,7 +25743,7 @@
       <c r="O473" s="6"/>
       <c r="P473" s="6"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25749,7 +25775,7 @@
       <c r="O474" s="6"/>
       <c r="P474" s="6"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25781,7 +25807,7 @@
       <c r="O475" s="6"/>
       <c r="P475" s="6"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25815,7 +25841,7 @@
       <c r="O476" s="6"/>
       <c r="P476" s="6"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25847,7 +25873,7 @@
       <c r="O477" s="6"/>
       <c r="P477" s="6"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25887,7 +25913,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25921,7 +25947,7 @@
       <c r="O479" s="6"/>
       <c r="P479" s="6"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25953,7 +25979,7 @@
       <c r="O480" s="6"/>
       <c r="P480" s="6"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>1757</v>
       </c>
@@ -25981,7 +26007,7 @@
       <c r="O481" s="6"/>
       <c r="P481" s="6"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26011,7 +26037,7 @@
       <c r="O482" s="6"/>
       <c r="P482" s="6"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26045,7 +26071,7 @@
       <c r="O483" s="6"/>
       <c r="P483" s="6"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26083,7 +26109,7 @@
       <c r="O484" s="6"/>
       <c r="P484" s="6"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26117,7 +26143,7 @@
       <c r="O485" s="6"/>
       <c r="P485" s="6"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26155,7 +26181,7 @@
       <c r="O486" s="6"/>
       <c r="P486" s="6"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26199,7 +26225,7 @@
       </c>
       <c r="P487" s="6"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26239,7 +26265,7 @@
       <c r="O488" s="6"/>
       <c r="P488" s="6"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26277,7 +26303,7 @@
       </c>
       <c r="P489" s="6"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26321,7 +26347,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26351,7 +26377,7 @@
       <c r="O491" s="6"/>
       <c r="P491" s="6"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26385,7 +26411,7 @@
       <c r="O492" s="6"/>
       <c r="P492" s="6"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26411,7 +26437,7 @@
       <c r="O493" s="6"/>
       <c r="P493" s="6"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26445,7 +26471,7 @@
       <c r="O494" s="6"/>
       <c r="P494" s="6"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26477,7 +26503,7 @@
       <c r="O495" s="6"/>
       <c r="P495" s="6"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26509,7 +26535,7 @@
       <c r="O496" s="6"/>
       <c r="P496" s="6"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26543,7 +26569,7 @@
       <c r="O497" s="6"/>
       <c r="P497" s="6"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26577,7 +26603,7 @@
       <c r="O498" s="6"/>
       <c r="P498" s="6"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26617,7 +26643,7 @@
       </c>
       <c r="P499" s="6"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26657,7 +26683,7 @@
       <c r="O500" s="6"/>
       <c r="P500" s="6"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26699,7 +26725,7 @@
       </c>
       <c r="P501" s="6"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26745,7 +26771,7 @@
       </c>
       <c r="P502" s="6"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26783,7 +26809,7 @@
       </c>
       <c r="P503" s="6"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26817,7 +26843,7 @@
       <c r="O504" s="6"/>
       <c r="P504" s="6"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26849,7 +26875,7 @@
       <c r="O505" s="6"/>
       <c r="P505" s="6"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26885,7 +26911,7 @@
       </c>
       <c r="P506" s="6"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26915,7 +26941,7 @@
       <c r="O507" s="6"/>
       <c r="P507" s="6"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26947,7 +26973,7 @@
       <c r="O508" s="6"/>
       <c r="P508" s="6"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26979,7 +27005,7 @@
       <c r="O509" s="6"/>
       <c r="P509" s="6"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27015,7 +27041,7 @@
       <c r="O510" s="6"/>
       <c r="P510" s="6"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27047,7 +27073,7 @@
       <c r="O511" s="6"/>
       <c r="P511" s="6"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27085,7 +27111,7 @@
       <c r="O512" s="6"/>
       <c r="P512" s="6"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27121,7 +27147,7 @@
       </c>
       <c r="P513" s="6"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27151,7 +27177,7 @@
       <c r="O514" s="6"/>
       <c r="P514" s="6"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27181,7 +27207,7 @@
       <c r="O515" s="6"/>
       <c r="P515" s="6"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27213,7 +27239,7 @@
       </c>
       <c r="P516" s="6"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27245,7 +27271,7 @@
       <c r="O517" s="6"/>
       <c r="P517" s="6"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27277,7 +27303,7 @@
       <c r="O518" s="6"/>
       <c r="P518" s="6"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27309,7 +27335,7 @@
       <c r="O519" s="6"/>
       <c r="P519" s="6"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27343,7 +27369,7 @@
       </c>
       <c r="P520" s="6"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27373,7 +27399,7 @@
       <c r="O521" s="6"/>
       <c r="P521" s="6"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27407,7 +27433,7 @@
       <c r="O522" s="6"/>
       <c r="P522" s="6"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27449,7 +27475,7 @@
       </c>
       <c r="P523" s="6"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27483,7 +27509,7 @@
       <c r="O524" s="6"/>
       <c r="P524" s="6"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27525,7 +27551,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27575,7 +27601,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27607,7 +27633,7 @@
       <c r="O527" s="6"/>
       <c r="P527" s="6"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27641,7 +27667,7 @@
       <c r="O528" s="6"/>
       <c r="P528" s="6"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27669,7 +27695,7 @@
       <c r="O529" s="6"/>
       <c r="P529" s="6"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27701,7 +27727,7 @@
       <c r="O530" s="6"/>
       <c r="P530" s="6"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27733,7 +27759,7 @@
       <c r="O531" s="6"/>
       <c r="P531" s="6"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27765,7 +27791,7 @@
       <c r="O532" s="6"/>
       <c r="P532" s="6"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27795,7 +27821,7 @@
       <c r="O533" s="6"/>
       <c r="P533" s="6"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27845,7 +27871,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27879,7 +27905,7 @@
       <c r="O535" s="6"/>
       <c r="P535" s="6"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27907,7 +27933,7 @@
       <c r="O536" s="6"/>
       <c r="P536" s="6"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27939,7 +27965,7 @@
       <c r="O537" s="6"/>
       <c r="P537" s="6"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1757</v>
       </c>
@@ -27973,7 +27999,7 @@
       <c r="O538" s="6"/>
       <c r="P538" s="6"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28011,7 +28037,7 @@
       <c r="O539" s="6"/>
       <c r="P539" s="6"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28041,7 +28067,7 @@
       <c r="O540" s="6"/>
       <c r="P540" s="6"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28071,7 +28097,7 @@
       <c r="O541" s="6"/>
       <c r="P541" s="6"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28121,7 +28147,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28157,7 +28183,7 @@
       </c>
       <c r="P543" s="6"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28197,7 +28223,7 @@
       <c r="O544" s="6"/>
       <c r="P544" s="6"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28229,7 +28255,7 @@
       <c r="O545" s="6"/>
       <c r="P545" s="6"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28279,7 +28305,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28311,7 +28337,7 @@
       <c r="O547" s="6"/>
       <c r="P547" s="6"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28359,7 +28385,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28393,7 +28419,7 @@
       <c r="O549" s="6"/>
       <c r="P549" s="6"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28425,7 +28451,7 @@
       <c r="O550" s="6"/>
       <c r="P550" s="6"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28455,7 +28481,7 @@
       <c r="O551" s="6"/>
       <c r="P551" s="6"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28485,7 +28511,7 @@
       <c r="O552" s="6"/>
       <c r="P552" s="6"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28515,7 +28541,7 @@
       <c r="O553" s="6"/>
       <c r="P553" s="6"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28565,7 +28591,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28597,7 +28623,7 @@
       <c r="O555" s="6"/>
       <c r="P555" s="6"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28629,7 +28655,7 @@
       <c r="O556" s="6"/>
       <c r="P556" s="6"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28659,7 +28685,7 @@
       <c r="O557" s="6"/>
       <c r="P557" s="6"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28693,7 +28719,7 @@
       <c r="O558" s="6"/>
       <c r="P558" s="6"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28723,7 +28749,7 @@
       <c r="O559" s="6"/>
       <c r="P559" s="6"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28759,7 +28785,7 @@
       </c>
       <c r="P560" s="6"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28791,7 +28817,7 @@
       <c r="O561" s="6"/>
       <c r="P561" s="6"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28841,7 +28867,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28873,7 +28899,7 @@
       <c r="O563" s="6"/>
       <c r="P563" s="6"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28905,7 +28931,7 @@
       <c r="O564" s="6"/>
       <c r="P564" s="6"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28935,7 +28961,7 @@
       <c r="O565" s="6"/>
       <c r="P565" s="6"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>1757</v>
       </c>
@@ -28965,7 +28991,7 @@
       <c r="O566" s="6"/>
       <c r="P566" s="6"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29001,7 +29027,7 @@
       <c r="O567" s="6"/>
       <c r="P567" s="6"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29031,7 +29057,7 @@
       <c r="O568" s="6"/>
       <c r="P568" s="6"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29061,7 +29087,7 @@
       <c r="O569" s="6"/>
       <c r="P569" s="6"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29093,7 +29119,7 @@
       </c>
       <c r="P570" s="6"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29127,7 +29153,7 @@
       </c>
       <c r="P571" s="6"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29157,7 +29183,7 @@
       <c r="O572" s="6"/>
       <c r="P572" s="6"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29187,7 +29213,7 @@
       <c r="O573" s="6"/>
       <c r="P573" s="6"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29217,7 +29243,7 @@
       <c r="O574" s="6"/>
       <c r="P574" s="6"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29247,7 +29273,7 @@
       <c r="O575" s="6"/>
       <c r="P575" s="6"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29275,7 +29301,7 @@
       <c r="O576" s="6"/>
       <c r="P576" s="6"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29311,7 +29337,7 @@
       <c r="O577" s="6"/>
       <c r="P577" s="6"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29341,7 +29367,7 @@
       <c r="O578" s="6"/>
       <c r="P578" s="6"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29369,7 +29395,7 @@
       <c r="O579" s="6"/>
       <c r="P579" s="6"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29403,7 +29429,7 @@
       </c>
       <c r="P580" s="6"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29431,7 +29457,7 @@
       <c r="O581" s="6"/>
       <c r="P581" s="6"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29473,7 +29499,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29503,7 +29529,7 @@
       <c r="O583" s="6"/>
       <c r="P583" s="6"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29531,7 +29557,7 @@
       <c r="O584" s="6"/>
       <c r="P584" s="6"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29561,7 +29587,7 @@
       </c>
       <c r="P585" s="6"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29589,7 +29615,7 @@
       <c r="O586" s="6"/>
       <c r="P586" s="6"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29617,7 +29643,7 @@
       <c r="O587" s="6"/>
       <c r="P587" s="6"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29645,7 +29671,7 @@
       <c r="O588" s="6"/>
       <c r="P588" s="6"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29677,7 +29703,7 @@
       <c r="O589" s="6"/>
       <c r="P589" s="6"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29709,7 +29735,7 @@
       <c r="O590" s="6"/>
       <c r="P590" s="6"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29739,7 +29765,7 @@
       <c r="O591" s="6"/>
       <c r="P591" s="6"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29771,7 +29797,7 @@
       </c>
       <c r="P592" s="6"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29801,7 +29827,7 @@
       <c r="O593" s="6"/>
       <c r="P593" s="6"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29831,7 +29857,7 @@
       <c r="O594" s="6"/>
       <c r="P594" s="6"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29881,7 +29907,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29911,7 +29937,7 @@
       <c r="O596" s="6"/>
       <c r="P596" s="6"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29941,7 +29967,7 @@
       <c r="O597" s="6"/>
       <c r="P597" s="6"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>1757</v>
       </c>
@@ -29971,7 +29997,7 @@
       <c r="O598" s="6"/>
       <c r="P598" s="6"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30001,7 +30027,7 @@
       <c r="O599" s="6"/>
       <c r="P599" s="6"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30031,7 +30057,7 @@
       <c r="O600" s="6"/>
       <c r="P600" s="6"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30067,7 +30093,7 @@
       <c r="O601" s="6"/>
       <c r="P601" s="6"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30099,7 +30125,7 @@
       <c r="O602" s="6"/>
       <c r="P602" s="6"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30141,7 +30167,7 @@
       </c>
       <c r="P603" s="6"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30171,7 +30197,7 @@
       <c r="O604" s="6"/>
       <c r="P604" s="6"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30203,7 +30229,7 @@
       <c r="O605" s="6"/>
       <c r="P605" s="6"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30239,7 +30265,7 @@
       <c r="O606" s="6"/>
       <c r="P606" s="6"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30275,7 +30301,7 @@
       </c>
       <c r="P607" s="6"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30307,7 +30333,7 @@
       </c>
       <c r="P608" s="6"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30337,7 +30363,7 @@
       <c r="O609" s="6"/>
       <c r="P609" s="6"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30371,7 +30397,7 @@
       <c r="O610" s="6"/>
       <c r="P610" s="6"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30413,7 +30439,7 @@
       </c>
       <c r="P611" s="6"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30445,7 +30471,7 @@
       <c r="O612" s="6"/>
       <c r="P612" s="6"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30483,7 +30509,7 @@
       </c>
       <c r="P613" s="6"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30517,7 +30543,7 @@
       <c r="O614" s="6"/>
       <c r="P614" s="6"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30551,7 +30577,7 @@
       <c r="O615" s="6"/>
       <c r="P615" s="6"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30581,7 +30607,7 @@
       <c r="O616" s="6"/>
       <c r="P616" s="6"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30617,7 +30643,7 @@
       <c r="O617" s="6"/>
       <c r="P617" s="6"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30649,7 +30675,7 @@
       <c r="O618" s="6"/>
       <c r="P618" s="6"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30689,7 +30715,7 @@
       <c r="O619" s="6"/>
       <c r="P619" s="6"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30721,7 +30747,7 @@
       <c r="O620" s="6"/>
       <c r="P620" s="6"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30759,7 +30785,7 @@
       </c>
       <c r="P621" s="6"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30793,7 +30819,7 @@
       <c r="O622" s="6"/>
       <c r="P622" s="6"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30825,7 +30851,7 @@
       <c r="O623" s="6"/>
       <c r="P623" s="6"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30859,7 +30885,7 @@
       </c>
       <c r="P624" s="6"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30891,7 +30917,7 @@
       <c r="O625" s="6"/>
       <c r="P625" s="6"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30925,7 +30951,7 @@
       <c r="O626" s="6"/>
       <c r="P626" s="6"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30961,7 +30987,7 @@
       </c>
       <c r="P627" s="6"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30995,7 +31021,7 @@
       <c r="O628" s="6"/>
       <c r="P628" s="6"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31027,7 +31053,7 @@
       <c r="O629" s="6"/>
       <c r="P629" s="6"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31067,7 +31093,7 @@
       </c>
       <c r="P630" s="6"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31109,7 +31135,7 @@
       </c>
       <c r="P631" s="6"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31151,7 +31177,7 @@
       </c>
       <c r="P632" s="6"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31193,7 +31219,7 @@
       </c>
       <c r="P633" s="6"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31239,7 +31265,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31269,7 +31295,7 @@
       <c r="O635" s="6"/>
       <c r="P635" s="6"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31305,7 +31331,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="637">
+    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31337,7 +31363,7 @@
       <c r="O637" s="6"/>
       <c r="P637" s="6"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31369,7 +31395,7 @@
       <c r="O638" s="6"/>
       <c r="P638" s="6"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31419,7 +31445,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="640">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31469,7 +31495,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="641">
+    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31499,7 +31525,7 @@
       <c r="O641" s="6"/>
       <c r="P641" s="6"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31529,7 +31555,7 @@
       <c r="O642" s="6"/>
       <c r="P642" s="6"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31561,7 +31587,7 @@
       <c r="O643" s="6"/>
       <c r="P643" s="6"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31597,7 +31623,7 @@
       </c>
       <c r="P644" s="6"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31635,7 +31661,7 @@
       </c>
       <c r="P645" s="6"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31667,7 +31693,7 @@
       <c r="O646" s="6"/>
       <c r="P646" s="6"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31707,7 +31733,7 @@
       <c r="O647" s="6"/>
       <c r="P647" s="6"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31743,7 +31769,7 @@
       </c>
       <c r="P648" s="6"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31773,7 +31799,7 @@
       <c r="O649" s="6"/>
       <c r="P649" s="6"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31805,7 +31831,7 @@
       </c>
       <c r="P650" s="6"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31837,7 +31863,7 @@
       </c>
       <c r="P651" s="6"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31867,7 +31893,7 @@
       <c r="O652" s="6"/>
       <c r="P652" s="6"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31899,7 +31925,7 @@
       </c>
       <c r="P653" s="6"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31927,7 +31953,7 @@
       <c r="O654" s="6"/>
       <c r="P654" s="6"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31961,7 +31987,7 @@
       <c r="O655" s="6"/>
       <c r="P655" s="6"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31995,7 +32021,7 @@
       </c>
       <c r="P656" s="6"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32025,7 +32051,7 @@
       <c r="O657" s="6"/>
       <c r="P657" s="6"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32059,7 +32085,7 @@
       <c r="O658" s="6"/>
       <c r="P658" s="6"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32089,7 +32115,7 @@
       <c r="O659" s="6"/>
       <c r="P659" s="6"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32139,7 +32165,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="661">
+    <row r="661" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32171,7 +32197,7 @@
       <c r="O661" s="6"/>
       <c r="P661" s="6"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32207,7 +32233,7 @@
       </c>
       <c r="P662" s="6"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32235,7 +32261,7 @@
       <c r="O663" s="6"/>
       <c r="P663" s="6"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32269,7 +32295,7 @@
       <c r="O664" s="6"/>
       <c r="P664" s="6"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32297,7 +32323,7 @@
       <c r="O665" s="6"/>
       <c r="P665" s="6"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32329,7 +32355,7 @@
       <c r="O666" s="6"/>
       <c r="P666" s="6"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32359,7 +32385,7 @@
       <c r="O667" s="6"/>
       <c r="P667" s="6"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32407,7 +32433,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="669">
+    <row r="669" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32443,7 +32469,7 @@
       <c r="O669" s="6"/>
       <c r="P669" s="6"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32493,7 +32519,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="671">
+    <row r="671" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32529,7 +32555,7 @@
       <c r="O671" s="6"/>
       <c r="P671" s="6"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32559,7 +32585,7 @@
       <c r="O672" s="6"/>
       <c r="P672" s="6"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32593,7 +32619,7 @@
       <c r="O673" s="6"/>
       <c r="P673" s="6"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32627,7 +32653,7 @@
       <c r="O674" s="6"/>
       <c r="P674" s="6"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32665,7 +32691,7 @@
       </c>
       <c r="P675" s="6"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32703,7 +32729,7 @@
       </c>
       <c r="P676" s="6"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32735,7 +32761,7 @@
       <c r="O677" s="6"/>
       <c r="P677" s="6"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32767,7 +32793,7 @@
       <c r="O678" s="6"/>
       <c r="P678" s="6"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32803,7 +32829,7 @@
       <c r="O679" s="6"/>
       <c r="P679" s="6"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32831,7 +32857,7 @@
       <c r="O680" s="6"/>
       <c r="P680" s="6"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32859,7 +32885,7 @@
       <c r="O681" s="6"/>
       <c r="P681" s="6"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32889,7 +32915,7 @@
       <c r="O682" s="6"/>
       <c r="P682" s="6"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32919,7 +32945,7 @@
       <c r="O683" s="6"/>
       <c r="P683" s="6"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32955,7 +32981,7 @@
       </c>
       <c r="P684" s="6"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>1757</v>
       </c>
@@ -32985,7 +33011,7 @@
       <c r="O685" s="6"/>
       <c r="P685" s="6"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33017,7 +33043,7 @@
       </c>
       <c r="P686" s="6"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33053,7 +33079,7 @@
       </c>
       <c r="P687" s="6"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33085,7 +33111,7 @@
       <c r="O688" s="6"/>
       <c r="P688" s="6"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33115,7 +33141,7 @@
       <c r="O689" s="6"/>
       <c r="P689" s="6"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33143,7 +33169,7 @@
       <c r="O690" s="6"/>
       <c r="P690" s="6"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33173,7 +33199,7 @@
       <c r="O691" s="6"/>
       <c r="P691" s="6"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33205,7 +33231,7 @@
       <c r="O692" s="6"/>
       <c r="P692" s="6"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33235,7 +33261,7 @@
       <c r="O693" s="6"/>
       <c r="P693" s="6"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33265,7 +33291,7 @@
       <c r="O694" s="6"/>
       <c r="P694" s="6"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33293,7 +33319,7 @@
       <c r="O695" s="6"/>
       <c r="P695" s="6"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33325,7 +33351,7 @@
       <c r="O696" s="6"/>
       <c r="P696" s="6"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33357,7 +33383,7 @@
       <c r="O697" s="6"/>
       <c r="P697" s="6"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33387,7 +33413,7 @@
       <c r="O698" s="6"/>
       <c r="P698" s="6"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33415,7 +33441,7 @@
       <c r="O699" s="6"/>
       <c r="P699" s="6"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33449,7 +33475,7 @@
       <c r="O700" s="6"/>
       <c r="P700" s="6"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33483,7 +33509,7 @@
       <c r="O701" s="6"/>
       <c r="P701" s="6"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33513,7 +33539,7 @@
       <c r="O702" s="6"/>
       <c r="P702" s="6"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33547,7 +33573,7 @@
       <c r="O703" s="6"/>
       <c r="P703" s="6"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33577,7 +33603,7 @@
       <c r="O704" s="6"/>
       <c r="P704" s="6"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33607,7 +33633,7 @@
       <c r="O705" s="6"/>
       <c r="P705" s="6"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33651,7 +33677,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="707">
+    <row r="707" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33681,7 +33707,7 @@
       <c r="O707" s="6"/>
       <c r="P707" s="6"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33709,7 +33735,7 @@
       <c r="O708" s="6"/>
       <c r="P708" s="6"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33739,7 +33765,7 @@
       <c r="O709" s="6"/>
       <c r="P709" s="6"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33779,7 +33805,7 @@
       </c>
       <c r="P710" s="6"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33827,7 +33853,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="712">
+    <row r="712" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33867,7 +33893,7 @@
       </c>
       <c r="P712" s="6"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33907,7 +33933,7 @@
       </c>
       <c r="P713" s="6"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33947,7 +33973,7 @@
       <c r="O714" s="6"/>
       <c r="P714" s="6"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>1757</v>
       </c>
@@ -33993,7 +34019,7 @@
       </c>
       <c r="P715" s="6"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34023,7 +34049,7 @@
       <c r="O716" s="6"/>
       <c r="P716" s="6"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34061,7 +34087,7 @@
       </c>
       <c r="P717" s="6"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34101,7 +34127,7 @@
       </c>
       <c r="P718" s="6"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34143,7 +34169,7 @@
       </c>
       <c r="P719" s="6"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34175,7 +34201,7 @@
       </c>
       <c r="P720" s="6"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34217,7 +34243,7 @@
       </c>
       <c r="P721" s="6"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34259,7 +34285,7 @@
       </c>
       <c r="P722" s="6"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34297,7 +34323,7 @@
       <c r="O723" s="6"/>
       <c r="P723" s="6"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34335,7 +34361,7 @@
       </c>
       <c r="P724" s="6"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34373,7 +34399,7 @@
       </c>
       <c r="P725" s="6"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34411,7 +34437,7 @@
       </c>
       <c r="P726" s="6"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34457,7 +34483,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="728">
+    <row r="728" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34507,7 +34533,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="729">
+    <row r="729" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34537,7 +34563,7 @@
       <c r="O729" s="6"/>
       <c r="P729" s="6"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34567,7 +34593,7 @@
       <c r="O730" s="6"/>
       <c r="P730" s="6"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34597,7 +34623,7 @@
       <c r="O731" s="6"/>
       <c r="P731" s="6"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34627,7 +34653,7 @@
       <c r="O732" s="6"/>
       <c r="P732" s="6"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34661,7 +34687,7 @@
       <c r="O733" s="6"/>
       <c r="P733" s="6"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34691,7 +34717,7 @@
       <c r="O734" s="6"/>
       <c r="P734" s="6"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34723,7 +34749,7 @@
       <c r="O735" s="6"/>
       <c r="P735" s="6"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34753,7 +34779,7 @@
       <c r="O736" s="6"/>
       <c r="P736" s="6"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34783,7 +34809,7 @@
       <c r="O737" s="6"/>
       <c r="P737" s="6"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34815,7 +34841,7 @@
       <c r="O738" s="6"/>
       <c r="P738" s="6"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34845,7 +34871,7 @@
       <c r="O739" s="6"/>
       <c r="P739" s="6"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34885,7 +34911,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="741">
+    <row r="741" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34923,7 +34949,7 @@
       </c>
       <c r="P741" s="6"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34953,7 +34979,7 @@
       <c r="O742" s="6"/>
       <c r="P742" s="6"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>1757</v>
       </c>
@@ -34981,7 +35007,7 @@
       <c r="O743" s="6"/>
       <c r="P743" s="6"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35019,7 +35045,7 @@
       </c>
       <c r="P744" s="6"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35047,7 +35073,7 @@
       <c r="O745" s="6"/>
       <c r="P745" s="6"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35077,7 +35103,7 @@
       <c r="O746" s="6"/>
       <c r="P746" s="6"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35111,7 +35137,7 @@
       <c r="O747" s="6"/>
       <c r="P747" s="6"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35139,7 +35165,7 @@
       <c r="O748" s="6"/>
       <c r="P748" s="6"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35167,7 +35193,7 @@
       <c r="O749" s="6"/>
       <c r="P749" s="6"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35201,7 +35227,7 @@
       </c>
       <c r="P750" s="6"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35241,7 +35267,7 @@
       </c>
       <c r="P751" s="6"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35267,7 +35293,7 @@
       <c r="O752" s="6"/>
       <c r="P752" s="6"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35311,7 +35337,7 @@
       </c>
       <c r="P753" s="6"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35341,7 +35367,7 @@
       <c r="O754" s="6"/>
       <c r="P754" s="6"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35387,7 +35413,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="756">
+    <row r="756" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35429,7 +35455,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="757">
+    <row r="757" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35473,7 +35499,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="758">
+    <row r="758" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35503,7 +35529,7 @@
       <c r="O758" s="6"/>
       <c r="P758" s="6"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35535,7 +35561,7 @@
       <c r="O759" s="6"/>
       <c r="P759" s="6"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35565,7 +35591,7 @@
       <c r="O760" s="6"/>
       <c r="P760" s="6"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35593,7 +35619,7 @@
       <c r="O761" s="6"/>
       <c r="P761" s="6"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35623,7 +35649,7 @@
       <c r="O762" s="6"/>
       <c r="P762" s="6"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35669,7 +35695,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="764">
+    <row r="764" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35701,7 +35727,7 @@
       <c r="O764" s="6"/>
       <c r="P764" s="6"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35731,7 +35757,7 @@
       <c r="O765" s="6"/>
       <c r="P765" s="6"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35759,7 +35785,7 @@
       <c r="O766" s="6"/>
       <c r="P766" s="6"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35807,7 +35833,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="768">
+    <row r="768" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35845,7 +35871,7 @@
       </c>
       <c r="P768" s="6"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35875,7 +35901,7 @@
       <c r="O769" s="6"/>
       <c r="P769" s="6"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35925,7 +35951,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="771">
+    <row r="771" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35955,7 +35981,7 @@
       <c r="O771" s="6"/>
       <c r="P771" s="6"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>1757</v>
       </c>
@@ -35989,7 +36015,7 @@
       <c r="O772" s="6"/>
       <c r="P772" s="6"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>1757</v>
       </c>
@@ -36031,7 +36057,7 @@
       </c>
       <c r="P773" s="6"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>1757</v>
       </c>
@@ -36073,7 +36099,7 @@
       </c>
       <c r="P774" s="6"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>1757</v>
       </c>
@@ -36111,7 +36137,7 @@
       <c r="O775" s="6"/>
       <c r="P775" s="6"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>1757</v>
       </c>
@@ -36145,7 +36171,7 @@
       <c r="O776" s="6"/>
       <c r="P776" s="6"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>1757</v>
       </c>
@@ -36173,7 +36199,7 @@
       <c r="O777" s="6"/>
       <c r="P777" s="6"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>1757</v>
       </c>
@@ -36205,7 +36231,7 @@
       <c r="O778" s="6"/>
       <c r="P778" s="6"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>1757</v>
       </c>
@@ -36233,7 +36259,7 @@
       <c r="O779" s="6"/>
       <c r="P779" s="6"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>1757</v>
       </c>
@@ -36265,7 +36291,7 @@
       <c r="O780" s="6"/>
       <c r="P780" s="6"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A781" s="7"/>
       <c r="B781" s="7"/>
       <c r="C781" s="8"/>
@@ -36283,7 +36309,7 @@
       <c r="O781" s="6"/>
       <c r="P781" s="6"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A782" s="7"/>
       <c r="B782" s="7"/>
       <c r="C782" s="8"/>
@@ -36301,7 +36327,7 @@
       <c r="O782" s="6"/>
       <c r="P782" s="6"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A783" s="7"/>
       <c r="B783" s="7"/>
       <c r="C783" s="8"/>
@@ -36319,7 +36345,7 @@
       <c r="O783" s="6"/>
       <c r="P783" s="6"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A784" s="7"/>
       <c r="B784" s="7"/>
       <c r="C784" s="8"/>
@@ -36337,7 +36363,7 @@
       <c r="O784" s="6"/>
       <c r="P784" s="6"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A785" s="7"/>
       <c r="B785" s="7"/>
       <c r="C785" s="8"/>
@@ -36355,7 +36381,7 @@
       <c r="O785" s="6"/>
       <c r="P785" s="6"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A786" s="7"/>
       <c r="B786" s="7"/>
       <c r="C786" s="8"/>
@@ -36373,7 +36399,7 @@
       <c r="O786" s="6"/>
       <c r="P786" s="6"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A787" s="7"/>
       <c r="B787" s="7"/>
       <c r="C787" s="8"/>
@@ -36391,7 +36417,7 @@
       <c r="O787" s="6"/>
       <c r="P787" s="6"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A788" s="7"/>
       <c r="B788" s="7"/>
       <c r="C788" s="8"/>
@@ -36409,7 +36435,7 @@
       <c r="O788" s="6"/>
       <c r="P788" s="6"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A789" s="7"/>
       <c r="B789" s="7"/>
       <c r="C789" s="8"/>
@@ -36427,7 +36453,7 @@
       <c r="O789" s="6"/>
       <c r="P789" s="6"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A790" s="7"/>
       <c r="B790" s="7"/>
       <c r="C790" s="8"/>
@@ -36445,7 +36471,7 @@
       <c r="O790" s="6"/>
       <c r="P790" s="6"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A791" s="7"/>
       <c r="B791" s="7"/>
       <c r="C791" s="8"/>
@@ -36463,7 +36489,7 @@
       <c r="O791" s="6"/>
       <c r="P791" s="6"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A792" s="7"/>
       <c r="B792" s="7"/>
       <c r="C792" s="8"/>
@@ -36481,7 +36507,7 @@
       <c r="O792" s="6"/>
       <c r="P792" s="6"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A793" s="7"/>
       <c r="B793" s="7"/>
       <c r="C793" s="8"/>
@@ -36499,7 +36525,7 @@
       <c r="O793" s="6"/>
       <c r="P793" s="6"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A794" s="7"/>
       <c r="B794" s="7"/>
       <c r="C794" s="8"/>
@@ -36517,7 +36543,7 @@
       <c r="O794" s="6"/>
       <c r="P794" s="6"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A795" s="7"/>
       <c r="B795" s="7"/>
       <c r="C795" s="8"/>
@@ -36535,7 +36561,7 @@
       <c r="O795" s="6"/>
       <c r="P795" s="6"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A796" s="7"/>
       <c r="B796" s="7"/>
       <c r="C796" s="8"/>
@@ -36553,7 +36579,7 @@
       <c r="O796" s="6"/>
       <c r="P796" s="6"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A797" s="7"/>
       <c r="B797" s="7"/>
       <c r="C797" s="8"/>
@@ -36571,7 +36597,7 @@
       <c r="O797" s="6"/>
       <c r="P797" s="6"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A798" s="7"/>
       <c r="B798" s="7"/>
       <c r="C798" s="8"/>
@@ -36589,7 +36615,7 @@
       <c r="O798" s="6"/>
       <c r="P798" s="6"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A799" s="7"/>
       <c r="B799" s="7"/>
       <c r="C799" s="8"/>
@@ -36607,7 +36633,7 @@
       <c r="O799" s="6"/>
       <c r="P799" s="6"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A800" s="7"/>
       <c r="B800" s="7"/>
       <c r="C800" s="8"/>
@@ -36625,7 +36651,7 @@
       <c r="O800" s="6"/>
       <c r="P800" s="6"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A801" s="7"/>
       <c r="B801" s="7"/>
       <c r="C801" s="8"/>
@@ -36643,7 +36669,7 @@
       <c r="O801" s="6"/>
       <c r="P801" s="6"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A802" s="7"/>
       <c r="B802" s="7"/>
       <c r="C802" s="8"/>
@@ -36661,7 +36687,7 @@
       <c r="O802" s="6"/>
       <c r="P802" s="6"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A803" s="7"/>
       <c r="B803" s="7"/>
       <c r="C803" s="8"/>
@@ -36679,7 +36705,7 @@
       <c r="O803" s="6"/>
       <c r="P803" s="6"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A804" s="7"/>
       <c r="B804" s="7"/>
       <c r="C804" s="8"/>
@@ -36697,7 +36723,7 @@
       <c r="O804" s="6"/>
       <c r="P804" s="6"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A805" s="7"/>
       <c r="B805" s="7"/>
       <c r="C805" s="8"/>
@@ -36715,7 +36741,7 @@
       <c r="O805" s="6"/>
       <c r="P805" s="6"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A806" s="7"/>
       <c r="B806" s="7"/>
       <c r="C806" s="8"/>
@@ -36733,7 +36759,7 @@
       <c r="O806" s="6"/>
       <c r="P806" s="6"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A807" s="7"/>
       <c r="B807" s="7"/>
       <c r="C807" s="8"/>
@@ -36751,7 +36777,7 @@
       <c r="O807" s="6"/>
       <c r="P807" s="6"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A808" s="7"/>
       <c r="B808" s="7"/>
       <c r="C808" s="8"/>
@@ -36769,7 +36795,7 @@
       <c r="O808" s="6"/>
       <c r="P808" s="6"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A809" s="7"/>
       <c r="B809" s="7"/>
       <c r="C809" s="8"/>
@@ -36787,7 +36813,7 @@
       <c r="O809" s="6"/>
       <c r="P809" s="6"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A810" s="7"/>
       <c r="B810" s="7"/>
       <c r="C810" s="8"/>
@@ -36805,7 +36831,7 @@
       <c r="O810" s="6"/>
       <c r="P810" s="6"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A811" s="7"/>
       <c r="B811" s="7"/>
       <c r="C811" s="8"/>
@@ -36823,7 +36849,7 @@
       <c r="O811" s="6"/>
       <c r="P811" s="6"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A812" s="7"/>
       <c r="B812" s="7"/>
       <c r="C812" s="8"/>
@@ -36841,7 +36867,7 @@
       <c r="O812" s="6"/>
       <c r="P812" s="6"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A813" s="7"/>
       <c r="B813" s="7"/>
       <c r="C813" s="8"/>
@@ -36859,7 +36885,7 @@
       <c r="O813" s="6"/>
       <c r="P813" s="6"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A814" s="7"/>
       <c r="B814" s="7"/>
       <c r="C814" s="8"/>
@@ -36877,7 +36903,7 @@
       <c r="O814" s="6"/>
       <c r="P814" s="6"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A815" s="7"/>
       <c r="B815" s="7"/>
       <c r="C815" s="8"/>
@@ -36895,7 +36921,7 @@
       <c r="O815" s="6"/>
       <c r="P815" s="6"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A816" s="7"/>
       <c r="B816" s="7"/>
       <c r="C816" s="8"/>
@@ -36913,7 +36939,7 @@
       <c r="O816" s="6"/>
       <c r="P816" s="6"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A817" s="7"/>
       <c r="B817" s="7"/>
       <c r="C817" s="8"/>
@@ -36931,7 +36957,7 @@
       <c r="O817" s="6"/>
       <c r="P817" s="6"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A818" s="7"/>
       <c r="B818" s="7"/>
       <c r="C818" s="8"/>
@@ -36949,7 +36975,7 @@
       <c r="O818" s="6"/>
       <c r="P818" s="6"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A819" s="7"/>
       <c r="B819" s="7"/>
       <c r="C819" s="8"/>
@@ -36967,7 +36993,7 @@
       <c r="O819" s="6"/>
       <c r="P819" s="6"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A820" s="7"/>
       <c r="B820" s="7"/>
       <c r="C820" s="8"/>
@@ -36985,7 +37011,7 @@
       <c r="O820" s="6"/>
       <c r="P820" s="6"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A821" s="7"/>
       <c r="B821" s="7"/>
       <c r="C821" s="8"/>
@@ -37003,7 +37029,7 @@
       <c r="O821" s="6"/>
       <c r="P821" s="6"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A822" s="7"/>
       <c r="B822" s="7"/>
       <c r="C822" s="8"/>
@@ -37021,7 +37047,7 @@
       <c r="O822" s="6"/>
       <c r="P822" s="6"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A823" s="7"/>
       <c r="B823" s="7"/>
       <c r="C823" s="8"/>
@@ -37039,7 +37065,7 @@
       <c r="O823" s="6"/>
       <c r="P823" s="6"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A824" s="7"/>
       <c r="B824" s="7"/>
       <c r="C824" s="8"/>
@@ -37057,7 +37083,7 @@
       <c r="O824" s="6"/>
       <c r="P824" s="6"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A825" s="7"/>
       <c r="B825" s="7"/>
       <c r="C825" s="8"/>
@@ -37075,7 +37101,7 @@
       <c r="O825" s="6"/>
       <c r="P825" s="6"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A826" s="7"/>
       <c r="B826" s="7"/>
       <c r="C826" s="8"/>
@@ -37093,7 +37119,7 @@
       <c r="O826" s="6"/>
       <c r="P826" s="6"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A827" s="7"/>
       <c r="B827" s="7"/>
       <c r="C827" s="8"/>
@@ -37111,7 +37137,7 @@
       <c r="O827" s="6"/>
       <c r="P827" s="6"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A828" s="7"/>
       <c r="B828" s="7"/>
       <c r="C828" s="8"/>
@@ -37129,7 +37155,7 @@
       <c r="O828" s="6"/>
       <c r="P828" s="6"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A829" s="7"/>
       <c r="B829" s="7"/>
       <c r="C829" s="8"/>
@@ -37147,7 +37173,7 @@
       <c r="O829" s="6"/>
       <c r="P829" s="6"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A830" s="7"/>
       <c r="B830" s="7"/>
       <c r="C830" s="8"/>
@@ -37165,7 +37191,7 @@
       <c r="O830" s="6"/>
       <c r="P830" s="6"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A831" s="7"/>
       <c r="B831" s="7"/>
       <c r="C831" s="8"/>
@@ -37183,7 +37209,7 @@
       <c r="O831" s="6"/>
       <c r="P831" s="6"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A832" s="7"/>
       <c r="B832" s="7"/>
       <c r="C832" s="8"/>
@@ -37201,7 +37227,7 @@
       <c r="O832" s="6"/>
       <c r="P832" s="6"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A833" s="7"/>
       <c r="B833" s="7"/>
       <c r="C833" s="8"/>
@@ -37219,7 +37245,7 @@
       <c r="O833" s="6"/>
       <c r="P833" s="6"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A834" s="7"/>
       <c r="B834" s="7"/>
       <c r="C834" s="8"/>
@@ -37237,7 +37263,7 @@
       <c r="O834" s="6"/>
       <c r="P834" s="6"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A835" s="7"/>
       <c r="B835" s="7"/>
       <c r="C835" s="8"/>
@@ -37255,7 +37281,7 @@
       <c r="O835" s="6"/>
       <c r="P835" s="6"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A836" s="7"/>
       <c r="B836" s="7"/>
       <c r="C836" s="8"/>
@@ -37273,7 +37299,7 @@
       <c r="O836" s="6"/>
       <c r="P836" s="6"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A837" s="7"/>
       <c r="B837" s="7"/>
       <c r="C837" s="8"/>
@@ -37291,7 +37317,7 @@
       <c r="O837" s="6"/>
       <c r="P837" s="6"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A838" s="7"/>
       <c r="B838" s="7"/>
       <c r="C838" s="8"/>
@@ -37309,7 +37335,7 @@
       <c r="O838" s="6"/>
       <c r="P838" s="6"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A839" s="7"/>
       <c r="B839" s="7"/>
       <c r="C839" s="8"/>
@@ -37327,7 +37353,7 @@
       <c r="O839" s="6"/>
       <c r="P839" s="6"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A840" s="7"/>
       <c r="B840" s="7"/>
       <c r="C840" s="8"/>
@@ -37345,7 +37371,7 @@
       <c r="O840" s="6"/>
       <c r="P840" s="6"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A841" s="7"/>
       <c r="B841" s="7"/>
       <c r="C841" s="8"/>
@@ -37363,7 +37389,7 @@
       <c r="O841" s="6"/>
       <c r="P841" s="6"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A842" s="7"/>
       <c r="B842" s="7"/>
       <c r="C842" s="8"/>
@@ -37381,7 +37407,7 @@
       <c r="O842" s="6"/>
       <c r="P842" s="6"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A843" s="7"/>
       <c r="B843" s="7"/>
       <c r="C843" s="8"/>
@@ -37399,7 +37425,7 @@
       <c r="O843" s="6"/>
       <c r="P843" s="6"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A844" s="7"/>
       <c r="B844" s="7"/>
       <c r="C844" s="8"/>
@@ -37417,7 +37443,7 @@
       <c r="O844" s="6"/>
       <c r="P844" s="6"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A845" s="7"/>
       <c r="B845" s="7"/>
       <c r="C845" s="8"/>
@@ -37435,7 +37461,7 @@
       <c r="O845" s="6"/>
       <c r="P845" s="6"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A846" s="7"/>
       <c r="B846" s="7"/>
       <c r="C846" s="8"/>
@@ -37453,7 +37479,7 @@
       <c r="O846" s="6"/>
       <c r="P846" s="6"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A847" s="7"/>
       <c r="B847" s="7"/>
       <c r="C847" s="8"/>
@@ -37471,7 +37497,7 @@
       <c r="O847" s="6"/>
       <c r="P847" s="6"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A848" s="7"/>
       <c r="B848" s="7"/>
       <c r="C848" s="8"/>
@@ -37489,7 +37515,7 @@
       <c r="O848" s="6"/>
       <c r="P848" s="6"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A849" s="7"/>
       <c r="B849" s="7"/>
       <c r="C849" s="8"/>
@@ -37507,7 +37533,7 @@
       <c r="O849" s="6"/>
       <c r="P849" s="6"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A850" s="7"/>
       <c r="B850" s="7"/>
       <c r="C850" s="8"/>
@@ -37525,7 +37551,7 @@
       <c r="O850" s="6"/>
       <c r="P850" s="6"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A851" s="7"/>
       <c r="B851" s="7"/>
       <c r="C851" s="8"/>
@@ -37543,7 +37569,7 @@
       <c r="O851" s="6"/>
       <c r="P851" s="6"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A852" s="7"/>
       <c r="B852" s="7"/>
       <c r="C852" s="8"/>
@@ -37561,7 +37587,7 @@
       <c r="O852" s="6"/>
       <c r="P852" s="6"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A853" s="7"/>
       <c r="B853" s="7"/>
       <c r="C853" s="8"/>
@@ -37579,7 +37605,7 @@
       <c r="O853" s="6"/>
       <c r="P853" s="6"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A854" s="7"/>
       <c r="B854" s="7"/>
       <c r="C854" s="8"/>
@@ -37597,7 +37623,7 @@
       <c r="O854" s="6"/>
       <c r="P854" s="6"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A855" s="7"/>
       <c r="B855" s="7"/>
       <c r="C855" s="8"/>
@@ -37615,7 +37641,7 @@
       <c r="O855" s="6"/>
       <c r="P855" s="6"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A856" s="7"/>
       <c r="B856" s="7"/>
       <c r="C856" s="8"/>
@@ -37633,7 +37659,7 @@
       <c r="O856" s="6"/>
       <c r="P856" s="6"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A857" s="7"/>
       <c r="B857" s="7"/>
       <c r="C857" s="8"/>
@@ -37651,7 +37677,7 @@
       <c r="O857" s="6"/>
       <c r="P857" s="6"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A858" s="7"/>
       <c r="B858" s="7"/>
       <c r="C858" s="8"/>
@@ -37669,7 +37695,7 @@
       <c r="O858" s="6"/>
       <c r="P858" s="6"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A859" s="7"/>
       <c r="B859" s="7"/>
       <c r="C859" s="8"/>
@@ -37687,7 +37713,7 @@
       <c r="O859" s="6"/>
       <c r="P859" s="6"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A860" s="7"/>
       <c r="B860" s="7"/>
       <c r="C860" s="8"/>
@@ -37705,7 +37731,7 @@
       <c r="O860" s="6"/>
       <c r="P860" s="6"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A861" s="7"/>
       <c r="B861" s="7"/>
       <c r="C861" s="8"/>
@@ -37723,7 +37749,7 @@
       <c r="O861" s="6"/>
       <c r="P861" s="6"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A862" s="7"/>
       <c r="B862" s="7"/>
       <c r="C862" s="8"/>
@@ -37741,7 +37767,7 @@
       <c r="O862" s="6"/>
       <c r="P862" s="6"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A863" s="7"/>
       <c r="B863" s="7"/>
       <c r="C863" s="8"/>
@@ -37759,7 +37785,7 @@
       <c r="O863" s="6"/>
       <c r="P863" s="6"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A864" s="7"/>
       <c r="B864" s="7"/>
       <c r="C864" s="8"/>
@@ -37777,7 +37803,7 @@
       <c r="O864" s="6"/>
       <c r="P864" s="6"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A865" s="7"/>
       <c r="B865" s="7"/>
       <c r="C865" s="8"/>
@@ -37795,7 +37821,7 @@
       <c r="O865" s="6"/>
       <c r="P865" s="6"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A866" s="7"/>
       <c r="B866" s="7"/>
       <c r="C866" s="8"/>
@@ -37813,7 +37839,7 @@
       <c r="O866" s="6"/>
       <c r="P866" s="6"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A867" s="7"/>
       <c r="B867" s="7"/>
       <c r="C867" s="8"/>
@@ -37831,7 +37857,7 @@
       <c r="O867" s="6"/>
       <c r="P867" s="6"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A868" s="7"/>
       <c r="B868" s="7"/>
       <c r="C868" s="8"/>
@@ -37849,7 +37875,7 @@
       <c r="O868" s="6"/>
       <c r="P868" s="6"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A869" s="7"/>
       <c r="B869" s="7"/>
       <c r="C869" s="8"/>
@@ -37867,7 +37893,7 @@
       <c r="O869" s="6"/>
       <c r="P869" s="6"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A870" s="7"/>
       <c r="B870" s="7"/>
       <c r="C870" s="8"/>
@@ -37885,7 +37911,7 @@
       <c r="O870" s="6"/>
       <c r="P870" s="6"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A871" s="7"/>
       <c r="B871" s="7"/>
       <c r="C871" s="8"/>
@@ -37903,7 +37929,7 @@
       <c r="O871" s="6"/>
       <c r="P871" s="6"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A872" s="7"/>
       <c r="B872" s="7"/>
       <c r="C872" s="8"/>
@@ -37921,7 +37947,7 @@
       <c r="O872" s="6"/>
       <c r="P872" s="6"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A873" s="7"/>
       <c r="B873" s="7"/>
       <c r="C873" s="8"/>
@@ -37939,7 +37965,7 @@
       <c r="O873" s="6"/>
       <c r="P873" s="6"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A874" s="7"/>
       <c r="B874" s="7"/>
       <c r="C874" s="8"/>
@@ -37957,7 +37983,7 @@
       <c r="O874" s="6"/>
       <c r="P874" s="6"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A875" s="7"/>
       <c r="B875" s="7"/>
       <c r="C875" s="8"/>
@@ -37975,7 +38001,7 @@
       <c r="O875" s="6"/>
       <c r="P875" s="6"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A876" s="7"/>
       <c r="B876" s="7"/>
       <c r="C876" s="8"/>
@@ -37993,7 +38019,7 @@
       <c r="O876" s="6"/>
       <c r="P876" s="6"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A877" s="7"/>
       <c r="B877" s="7"/>
       <c r="C877" s="8"/>
@@ -38011,7 +38037,7 @@
       <c r="O877" s="6"/>
       <c r="P877" s="6"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A878" s="7"/>
       <c r="B878" s="7"/>
       <c r="C878" s="8"/>
@@ -38029,7 +38055,7 @@
       <c r="O878" s="6"/>
       <c r="P878" s="6"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A879" s="7"/>
       <c r="B879" s="7"/>
       <c r="C879" s="8"/>
@@ -38047,7 +38073,7 @@
       <c r="O879" s="6"/>
       <c r="P879" s="6"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A880" s="7"/>
       <c r="B880" s="7"/>
       <c r="C880" s="8"/>
@@ -38065,7 +38091,7 @@
       <c r="O880" s="6"/>
       <c r="P880" s="6"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A881" s="7"/>
       <c r="B881" s="7"/>
       <c r="C881" s="8"/>
@@ -38083,7 +38109,7 @@
       <c r="O881" s="6"/>
       <c r="P881" s="6"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A882" s="7"/>
       <c r="B882" s="7"/>
       <c r="C882" s="8"/>
@@ -38101,7 +38127,7 @@
       <c r="O882" s="6"/>
       <c r="P882" s="6"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A883" s="7"/>
       <c r="B883" s="7"/>
       <c r="C883" s="8"/>
@@ -38119,7 +38145,7 @@
       <c r="O883" s="6"/>
       <c r="P883" s="6"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A884" s="7"/>
       <c r="B884" s="7"/>
       <c r="C884" s="8"/>
@@ -38137,7 +38163,7 @@
       <c r="O884" s="6"/>
       <c r="P884" s="6"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A885" s="7"/>
       <c r="B885" s="7"/>
       <c r="C885" s="8"/>
@@ -38155,7 +38181,7 @@
       <c r="O885" s="6"/>
       <c r="P885" s="6"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A886" s="7"/>
       <c r="B886" s="7"/>
       <c r="C886" s="8"/>
@@ -38173,7 +38199,7 @@
       <c r="O886" s="6"/>
       <c r="P886" s="6"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A887" s="7"/>
       <c r="B887" s="7"/>
       <c r="C887" s="8"/>
@@ -38191,7 +38217,7 @@
       <c r="O887" s="6"/>
       <c r="P887" s="6"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A888" s="7"/>
       <c r="B888" s="7"/>
       <c r="C888" s="8"/>
@@ -38209,7 +38235,7 @@
       <c r="O888" s="6"/>
       <c r="P888" s="6"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A889" s="7"/>
       <c r="B889" s="7"/>
       <c r="C889" s="8"/>
@@ -38227,7 +38253,7 @@
       <c r="O889" s="6"/>
       <c r="P889" s="6"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A890" s="7"/>
       <c r="B890" s="7"/>
       <c r="C890" s="8"/>
@@ -38245,7 +38271,7 @@
       <c r="O890" s="6"/>
       <c r="P890" s="6"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A891" s="7"/>
       <c r="B891" s="7"/>
       <c r="C891" s="8"/>
@@ -38263,7 +38289,7 @@
       <c r="O891" s="6"/>
       <c r="P891" s="6"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A892" s="7"/>
       <c r="B892" s="7"/>
       <c r="C892" s="8"/>
@@ -38281,7 +38307,7 @@
       <c r="O892" s="6"/>
       <c r="P892" s="6"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A893" s="7"/>
       <c r="B893" s="7"/>
       <c r="C893" s="8"/>
@@ -38299,7 +38325,7 @@
       <c r="O893" s="6"/>
       <c r="P893" s="6"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A894" s="7"/>
       <c r="B894" s="7"/>
       <c r="C894" s="8"/>
@@ -38317,7 +38343,7 @@
       <c r="O894" s="6"/>
       <c r="P894" s="6"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A895" s="7"/>
       <c r="B895" s="7"/>
       <c r="C895" s="8"/>
@@ -38335,7 +38361,7 @@
       <c r="O895" s="6"/>
       <c r="P895" s="6"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A896" s="7"/>
       <c r="B896" s="7"/>
       <c r="C896" s="8"/>
@@ -38353,7 +38379,7 @@
       <c r="O896" s="6"/>
       <c r="P896" s="6"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A897" s="7"/>
       <c r="B897" s="7"/>
       <c r="C897" s="8"/>
@@ -38371,7 +38397,7 @@
       <c r="O897" s="6"/>
       <c r="P897" s="6"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A898" s="7"/>
       <c r="B898" s="7"/>
       <c r="C898" s="8"/>
@@ -38389,7 +38415,7 @@
       <c r="O898" s="6"/>
       <c r="P898" s="6"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A899" s="7"/>
       <c r="B899" s="7"/>
       <c r="C899" s="8"/>
@@ -38407,7 +38433,7 @@
       <c r="O899" s="6"/>
       <c r="P899" s="6"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A900" s="7"/>
       <c r="B900" s="7"/>
       <c r="C900" s="8"/>
@@ -38425,7 +38451,7 @@
       <c r="O900" s="6"/>
       <c r="P900" s="6"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A901" s="7"/>
       <c r="B901" s="7"/>
       <c r="C901" s="8"/>
@@ -38443,7 +38469,7 @@
       <c r="O901" s="6"/>
       <c r="P901" s="6"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A902" s="7"/>
       <c r="B902" s="7"/>
       <c r="C902" s="8"/>
@@ -38461,7 +38487,7 @@
       <c r="O902" s="6"/>
       <c r="P902" s="6"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A903" s="7"/>
       <c r="B903" s="7"/>
       <c r="C903" s="8"/>
@@ -38479,7 +38505,7 @@
       <c r="O903" s="6"/>
       <c r="P903" s="6"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A904" s="7"/>
       <c r="B904" s="7"/>
       <c r="C904" s="8"/>
@@ -38497,7 +38523,7 @@
       <c r="O904" s="6"/>
       <c r="P904" s="6"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A905" s="7"/>
       <c r="B905" s="7"/>
       <c r="C905" s="8"/>
@@ -38515,7 +38541,7 @@
       <c r="O905" s="6"/>
       <c r="P905" s="6"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A906" s="7"/>
       <c r="B906" s="7"/>
       <c r="C906" s="8"/>
@@ -38533,7 +38559,7 @@
       <c r="O906" s="6"/>
       <c r="P906" s="6"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A907" s="7"/>
       <c r="B907" s="7"/>
       <c r="C907" s="8"/>
@@ -38551,7 +38577,7 @@
       <c r="O907" s="6"/>
       <c r="P907" s="6"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A908" s="7"/>
       <c r="B908" s="7"/>
       <c r="C908" s="8"/>
@@ -38569,7 +38595,7 @@
       <c r="O908" s="6"/>
       <c r="P908" s="6"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A909" s="7"/>
       <c r="B909" s="7"/>
       <c r="C909" s="8"/>
@@ -38587,7 +38613,7 @@
       <c r="O909" s="6"/>
       <c r="P909" s="6"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A910" s="7"/>
       <c r="B910" s="7"/>
       <c r="C910" s="8"/>
@@ -38605,7 +38631,7 @@
       <c r="O910" s="6"/>
       <c r="P910" s="6"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A911" s="7"/>
       <c r="B911" s="7"/>
       <c r="C911" s="8"/>
@@ -38623,7 +38649,7 @@
       <c r="O911" s="6"/>
       <c r="P911" s="6"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A912" s="7"/>
       <c r="B912" s="7"/>
       <c r="C912" s="8"/>
@@ -38641,7 +38667,7 @@
       <c r="O912" s="6"/>
       <c r="P912" s="6"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A913" s="7"/>
       <c r="B913" s="7"/>
       <c r="C913" s="8"/>
@@ -38659,7 +38685,7 @@
       <c r="O913" s="6"/>
       <c r="P913" s="6"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A914" s="7"/>
       <c r="B914" s="7"/>
       <c r="C914" s="8"/>
@@ -38677,7 +38703,7 @@
       <c r="O914" s="6"/>
       <c r="P914" s="6"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A915" s="7"/>
       <c r="B915" s="7"/>
       <c r="C915" s="8"/>
@@ -38695,7 +38721,7 @@
       <c r="O915" s="6"/>
       <c r="P915" s="6"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A916" s="7"/>
       <c r="B916" s="7"/>
       <c r="C916" s="8"/>
@@ -38713,7 +38739,7 @@
       <c r="O916" s="6"/>
       <c r="P916" s="6"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A917" s="7"/>
       <c r="B917" s="7"/>
       <c r="C917" s="8"/>
@@ -38731,7 +38757,7 @@
       <c r="O917" s="6"/>
       <c r="P917" s="6"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A918" s="7"/>
       <c r="B918" s="7"/>
       <c r="C918" s="8"/>
@@ -38749,7 +38775,7 @@
       <c r="O918" s="6"/>
       <c r="P918" s="6"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A919" s="7"/>
       <c r="B919" s="7"/>
       <c r="C919" s="8"/>
@@ -38767,7 +38793,7 @@
       <c r="O919" s="6"/>
       <c r="P919" s="6"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A920" s="7"/>
       <c r="B920" s="7"/>
       <c r="C920" s="8"/>
@@ -38785,7 +38811,7 @@
       <c r="O920" s="6"/>
       <c r="P920" s="6"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A921" s="7"/>
       <c r="B921" s="7"/>
       <c r="C921" s="8"/>
@@ -38803,7 +38829,7 @@
       <c r="O921" s="6"/>
       <c r="P921" s="6"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A922" s="7"/>
       <c r="B922" s="7"/>
       <c r="C922" s="8"/>
@@ -38821,7 +38847,7 @@
       <c r="O922" s="6"/>
       <c r="P922" s="6"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A923" s="7"/>
       <c r="B923" s="7"/>
       <c r="C923" s="8"/>
@@ -38839,7 +38865,7 @@
       <c r="O923" s="6"/>
       <c r="P923" s="6"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A924" s="7"/>
       <c r="B924" s="7"/>
       <c r="C924" s="8"/>
@@ -38857,7 +38883,7 @@
       <c r="O924" s="6"/>
       <c r="P924" s="6"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A925" s="7"/>
       <c r="B925" s="7"/>
       <c r="C925" s="8"/>
@@ -38875,7 +38901,7 @@
       <c r="O925" s="6"/>
       <c r="P925" s="6"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A926" s="7"/>
       <c r="B926" s="7"/>
       <c r="C926" s="8"/>
@@ -38893,7 +38919,7 @@
       <c r="O926" s="6"/>
       <c r="P926" s="6"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A927" s="7"/>
       <c r="B927" s="7"/>
       <c r="C927" s="8"/>
@@ -38911,7 +38937,7 @@
       <c r="O927" s="6"/>
       <c r="P927" s="6"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A928" s="7"/>
       <c r="B928" s="7"/>
       <c r="C928" s="8"/>
@@ -38929,7 +38955,7 @@
       <c r="O928" s="6"/>
       <c r="P928" s="6"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A929" s="7"/>
       <c r="B929" s="7"/>
       <c r="C929" s="8"/>
@@ -38947,7 +38973,7 @@
       <c r="O929" s="6"/>
       <c r="P929" s="6"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A930" s="7"/>
       <c r="B930" s="7"/>
       <c r="C930" s="8"/>
@@ -38965,7 +38991,7 @@
       <c r="O930" s="6"/>
       <c r="P930" s="6"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A931" s="7"/>
       <c r="B931" s="7"/>
       <c r="C931" s="8"/>
@@ -38983,7 +39009,7 @@
       <c r="O931" s="6"/>
       <c r="P931" s="6"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A932" s="7"/>
       <c r="B932" s="7"/>
       <c r="C932" s="8"/>
@@ -39001,7 +39027,7 @@
       <c r="O932" s="6"/>
       <c r="P932" s="6"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A933" s="7"/>
       <c r="B933" s="7"/>
       <c r="C933" s="8"/>
@@ -39019,7 +39045,7 @@
       <c r="O933" s="6"/>
       <c r="P933" s="6"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A934" s="7"/>
       <c r="B934" s="7"/>
       <c r="C934" s="8"/>
@@ -39037,7 +39063,7 @@
       <c r="O934" s="6"/>
       <c r="P934" s="6"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A935" s="7"/>
       <c r="B935" s="7"/>
       <c r="C935" s="8"/>
@@ -39055,7 +39081,7 @@
       <c r="O935" s="6"/>
       <c r="P935" s="6"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A936" s="7"/>
       <c r="B936" s="7"/>
       <c r="C936" s="8"/>
@@ -39073,7 +39099,7 @@
       <c r="O936" s="6"/>
       <c r="P936" s="6"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A937" s="7"/>
       <c r="B937" s="7"/>
       <c r="C937" s="8"/>
@@ -39091,7 +39117,7 @@
       <c r="O937" s="6"/>
       <c r="P937" s="6"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A938" s="7"/>
       <c r="B938" s="7"/>
       <c r="C938" s="8"/>
@@ -39109,7 +39135,7 @@
       <c r="O938" s="6"/>
       <c r="P938" s="6"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A939" s="7"/>
       <c r="B939" s="7"/>
       <c r="C939" s="8"/>
@@ -39127,7 +39153,7 @@
       <c r="O939" s="6"/>
       <c r="P939" s="6"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A940" s="7"/>
       <c r="B940" s="7"/>
       <c r="C940" s="8"/>
@@ -39145,7 +39171,7 @@
       <c r="O940" s="6"/>
       <c r="P940" s="6"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A941" s="7"/>
       <c r="B941" s="7"/>
       <c r="C941" s="8"/>
@@ -39163,7 +39189,7 @@
       <c r="O941" s="6"/>
       <c r="P941" s="6"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A942" s="7"/>
       <c r="B942" s="7"/>
       <c r="C942" s="8"/>
@@ -39181,7 +39207,7 @@
       <c r="O942" s="6"/>
       <c r="P942" s="6"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A943" s="7"/>
       <c r="B943" s="7"/>
       <c r="C943" s="8"/>
@@ -39199,7 +39225,7 @@
       <c r="O943" s="6"/>
       <c r="P943" s="6"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A944" s="7"/>
       <c r="B944" s="7"/>
       <c r="C944" s="8"/>
@@ -39217,7 +39243,7 @@
       <c r="O944" s="6"/>
       <c r="P944" s="6"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A945" s="7"/>
       <c r="B945" s="7"/>
       <c r="C945" s="8"/>
@@ -39235,7 +39261,7 @@
       <c r="O945" s="6"/>
       <c r="P945" s="6"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A946" s="7"/>
       <c r="B946" s="7"/>
       <c r="C946" s="8"/>
@@ -39253,7 +39279,7 @@
       <c r="O946" s="6"/>
       <c r="P946" s="6"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A947" s="7"/>
       <c r="B947" s="7"/>
       <c r="C947" s="8"/>
@@ -39271,7 +39297,7 @@
       <c r="O947" s="6"/>
       <c r="P947" s="6"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A948" s="7"/>
       <c r="B948" s="7"/>
       <c r="C948" s="8"/>
@@ -39289,7 +39315,7 @@
       <c r="O948" s="6"/>
       <c r="P948" s="6"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A949" s="7"/>
       <c r="B949" s="7"/>
       <c r="C949" s="8"/>
@@ -39307,7 +39333,7 @@
       <c r="O949" s="6"/>
       <c r="P949" s="6"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A950" s="7"/>
       <c r="B950" s="7"/>
       <c r="C950" s="8"/>
@@ -39325,7 +39351,7 @@
       <c r="O950" s="6"/>
       <c r="P950" s="6"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A951" s="7"/>
       <c r="B951" s="7"/>
       <c r="C951" s="8"/>
@@ -39343,7 +39369,7 @@
       <c r="O951" s="6"/>
       <c r="P951" s="6"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A952" s="7"/>
       <c r="B952" s="7"/>
       <c r="C952" s="8"/>
@@ -39361,7 +39387,7 @@
       <c r="O952" s="6"/>
       <c r="P952" s="6"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A953" s="7"/>
       <c r="B953" s="7"/>
       <c r="C953" s="8"/>
@@ -39379,7 +39405,7 @@
       <c r="O953" s="6"/>
       <c r="P953" s="6"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A954" s="7"/>
       <c r="B954" s="7"/>
       <c r="C954" s="8"/>
@@ -39397,7 +39423,7 @@
       <c r="O954" s="6"/>
       <c r="P954" s="6"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A955" s="7"/>
       <c r="B955" s="7"/>
       <c r="C955" s="8"/>
@@ -39415,7 +39441,7 @@
       <c r="O955" s="6"/>
       <c r="P955" s="6"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A956" s="7"/>
       <c r="B956" s="7"/>
       <c r="C956" s="8"/>
@@ -39433,7 +39459,7 @@
       <c r="O956" s="6"/>
       <c r="P956" s="6"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A957" s="7"/>
       <c r="B957" s="7"/>
       <c r="C957" s="8"/>
@@ -39451,7 +39477,7 @@
       <c r="O957" s="6"/>
       <c r="P957" s="6"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A958" s="7"/>
       <c r="B958" s="7"/>
       <c r="C958" s="8"/>
@@ -39469,7 +39495,7 @@
       <c r="O958" s="6"/>
       <c r="P958" s="6"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A959" s="7"/>
       <c r="B959" s="7"/>
       <c r="C959" s="8"/>
@@ -39487,7 +39513,7 @@
       <c r="O959" s="6"/>
       <c r="P959" s="6"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A960" s="7"/>
       <c r="B960" s="7"/>
       <c r="C960" s="8"/>
@@ -39505,7 +39531,7 @@
       <c r="O960" s="6"/>
       <c r="P960" s="6"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A961" s="7"/>
       <c r="B961" s="7"/>
       <c r="C961" s="8"/>
@@ -39523,7 +39549,7 @@
       <c r="O961" s="6"/>
       <c r="P961" s="6"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A962" s="7"/>
       <c r="B962" s="7"/>
       <c r="C962" s="8"/>
@@ -39541,7 +39567,7 @@
       <c r="O962" s="6"/>
       <c r="P962" s="6"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A963" s="7"/>
       <c r="B963" s="7"/>
       <c r="C963" s="8"/>
@@ -39559,7 +39585,7 @@
       <c r="O963" s="6"/>
       <c r="P963" s="6"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A964" s="7"/>
       <c r="B964" s="7"/>
       <c r="C964" s="8"/>
@@ -39577,7 +39603,7 @@
       <c r="O964" s="6"/>
       <c r="P964" s="6"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A965" s="7"/>
       <c r="B965" s="7"/>
       <c r="C965" s="8"/>
@@ -39595,7 +39621,7 @@
       <c r="O965" s="6"/>
       <c r="P965" s="6"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A966" s="7"/>
       <c r="B966" s="7"/>
       <c r="C966" s="8"/>
@@ -39613,7 +39639,7 @@
       <c r="O966" s="6"/>
       <c r="P966" s="6"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A967" s="7"/>
       <c r="B967" s="7"/>
       <c r="C967" s="8"/>
@@ -39631,7 +39657,7 @@
       <c r="O967" s="6"/>
       <c r="P967" s="6"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A968" s="7"/>
       <c r="B968" s="7"/>
       <c r="C968" s="8"/>
@@ -39649,7 +39675,7 @@
       <c r="O968" s="6"/>
       <c r="P968" s="6"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A969" s="7"/>
       <c r="B969" s="7"/>
       <c r="C969" s="8"/>
@@ -39667,7 +39693,7 @@
       <c r="O969" s="6"/>
       <c r="P969" s="6"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A970" s="7"/>
       <c r="B970" s="7"/>
       <c r="C970" s="8"/>
@@ -39685,7 +39711,7 @@
       <c r="O970" s="6"/>
       <c r="P970" s="6"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A971" s="7"/>
       <c r="B971" s="7"/>
       <c r="C971" s="8"/>
@@ -39703,7 +39729,7 @@
       <c r="O971" s="6"/>
       <c r="P971" s="6"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A972" s="7"/>
       <c r="B972" s="7"/>
       <c r="C972" s="8"/>
@@ -39721,7 +39747,7 @@
       <c r="O972" s="6"/>
       <c r="P972" s="6"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A973" s="7"/>
       <c r="B973" s="7"/>
       <c r="C973" s="8"/>
@@ -39739,7 +39765,7 @@
       <c r="O973" s="6"/>
       <c r="P973" s="6"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A974" s="7"/>
       <c r="B974" s="7"/>
       <c r="C974" s="8"/>
@@ -39757,7 +39783,7 @@
       <c r="O974" s="6"/>
       <c r="P974" s="6"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A975" s="7"/>
       <c r="B975" s="7"/>
       <c r="C975" s="8"/>
@@ -39775,7 +39801,7 @@
       <c r="O975" s="6"/>
       <c r="P975" s="6"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A976" s="7"/>
       <c r="B976" s="7"/>
       <c r="C976" s="8"/>
@@ -39793,7 +39819,7 @@
       <c r="O976" s="6"/>
       <c r="P976" s="6"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A977" s="7"/>
       <c r="B977" s="7"/>
       <c r="C977" s="8"/>
@@ -39811,7 +39837,7 @@
       <c r="O977" s="6"/>
       <c r="P977" s="6"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A978" s="7"/>
       <c r="B978" s="7"/>
       <c r="C978" s="8"/>
@@ -39829,7 +39855,7 @@
       <c r="O978" s="6"/>
       <c r="P978" s="6"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A979" s="7"/>
       <c r="B979" s="7"/>
       <c r="C979" s="8"/>
@@ -39847,7 +39873,7 @@
       <c r="O979" s="6"/>
       <c r="P979" s="6"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A980" s="7"/>
       <c r="B980" s="7"/>
       <c r="C980" s="8"/>
@@ -39865,7 +39891,7 @@
       <c r="O980" s="6"/>
       <c r="P980" s="6"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A981" s="7"/>
       <c r="B981" s="7"/>
       <c r="C981" s="8"/>
@@ -39883,7 +39909,7 @@
       <c r="O981" s="6"/>
       <c r="P981" s="6"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A982" s="7"/>
       <c r="B982" s="7"/>
       <c r="C982" s="8"/>
@@ -39901,7 +39927,7 @@
       <c r="O982" s="6"/>
       <c r="P982" s="6"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A983" s="7"/>
       <c r="B983" s="7"/>
       <c r="C983" s="8"/>
@@ -39919,7 +39945,7 @@
       <c r="O983" s="6"/>
       <c r="P983" s="6"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A984" s="7"/>
       <c r="B984" s="7"/>
       <c r="C984" s="8"/>
@@ -39937,7 +39963,7 @@
       <c r="O984" s="6"/>
       <c r="P984" s="6"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A985" s="7"/>
       <c r="B985" s="7"/>
       <c r="C985" s="8"/>
@@ -39955,7 +39981,7 @@
       <c r="O985" s="6"/>
       <c r="P985" s="6"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A986" s="7"/>
       <c r="B986" s="7"/>
       <c r="C986" s="8"/>
@@ -39973,7 +39999,7 @@
       <c r="O986" s="6"/>
       <c r="P986" s="6"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A987" s="7"/>
       <c r="B987" s="7"/>
       <c r="C987" s="8"/>
@@ -39991,7 +40017,7 @@
       <c r="O987" s="6"/>
       <c r="P987" s="6"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A988" s="7"/>
       <c r="B988" s="7"/>
       <c r="C988" s="8"/>
@@ -40009,7 +40035,7 @@
       <c r="O988" s="6"/>
       <c r="P988" s="6"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A989" s="7"/>
       <c r="B989" s="7"/>
       <c r="C989" s="8"/>
@@ -40027,7 +40053,7 @@
       <c r="O989" s="6"/>
       <c r="P989" s="6"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A990" s="7"/>
       <c r="B990" s="7"/>
       <c r="C990" s="8"/>
@@ -40045,7 +40071,7 @@
       <c r="O990" s="6"/>
       <c r="P990" s="6"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A991" s="7"/>
       <c r="B991" s="7"/>
       <c r="C991" s="8"/>
@@ -40063,7 +40089,7 @@
       <c r="O991" s="6"/>
       <c r="P991" s="6"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A992" s="7"/>
       <c r="B992" s="7"/>
       <c r="C992" s="8"/>
@@ -40081,7 +40107,7 @@
       <c r="O992" s="6"/>
       <c r="P992" s="6"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A993" s="7"/>
       <c r="B993" s="7"/>
       <c r="C993" s="8"/>
@@ -40099,7 +40125,7 @@
       <c r="O993" s="6"/>
       <c r="P993" s="6"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A994" s="7"/>
       <c r="B994" s="7"/>
       <c r="C994" s="8"/>
@@ -40117,7 +40143,7 @@
       <c r="O994" s="6"/>
       <c r="P994" s="6"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A995" s="7"/>
       <c r="B995" s="7"/>
       <c r="C995" s="8"/>
@@ -40135,7 +40161,7 @@
       <c r="O995" s="6"/>
       <c r="P995" s="6"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A996" s="7"/>
       <c r="B996" s="7"/>
       <c r="C996" s="8"/>
@@ -40153,7 +40179,7 @@
       <c r="O996" s="6"/>
       <c r="P996" s="6"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A997" s="7"/>
       <c r="B997" s="7"/>
       <c r="C997" s="8"/>
@@ -40171,7 +40197,7 @@
       <c r="O997" s="6"/>
       <c r="P997" s="6"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A998" s="7"/>
       <c r="B998" s="7"/>
       <c r="C998" s="8"/>
@@ -40189,7 +40215,7 @@
       <c r="O998" s="6"/>
       <c r="P998" s="6"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A999" s="7"/>
       <c r="B999" s="7"/>
       <c r="C999" s="8"/>
@@ -40207,7 +40233,7 @@
       <c r="O999" s="6"/>
       <c r="P999" s="6"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1000" s="7"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="8"/>
@@ -40225,7 +40251,7 @@
       <c r="O1000" s="6"/>
       <c r="P1000" s="6"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1001" s="7"/>
       <c r="B1001" s="7"/>
       <c r="C1001" s="8"/>
@@ -40244,6 +40270,6 @@
       <c r="P1001" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>